--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acyang@us.ibm.com/Desktop/Study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F8D020-74C2-1945-8A3A-6E28128485A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DFB34B-7D46-49F3-9097-CD96E6301DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1140" windowWidth="28040" windowHeight="17440" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1070,17 +1070,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>82</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>87</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>88</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>90</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>97</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>104</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>108</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>109</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>116</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>119</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
@@ -3649,7 +3649,7 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>122</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>123</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>125</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>129</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>132</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>162</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>135</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>137</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>139</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>140</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>143</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>145</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>147</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>149</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>151</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>153</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>155</v>
       </c>
@@ -4557,7 +4557,7 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>156</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>158</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>160</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>163</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>165</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>166</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>167</v>
       </c>
@@ -4887,7 +4887,7 @@
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>169</v>
       </c>
@@ -4939,8 +4939,8 @@
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4958,7 +4958,9 @@
       <c r="F79" s="3">
         <v>44522</v>
       </c>
-      <c r="G79" s="2"/>
+      <c r="G79" s="3">
+        <v>44621</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -4987,8 +4989,8 @@
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -5006,7 +5008,9 @@
       <c r="F80" s="3">
         <v>44522</v>
       </c>
-      <c r="G80" s="2"/>
+      <c r="G80" s="3">
+        <v>44620</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -5035,8 +5039,8 @@
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -5054,7 +5058,9 @@
       <c r="F81" s="3">
         <v>44523</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="G81" s="3">
+        <v>44622</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -5083,8 +5089,8 @@
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -5102,7 +5108,9 @@
       <c r="F82" s="3">
         <v>44570</v>
       </c>
-      <c r="G82" s="2"/>
+      <c r="G82" s="3">
+        <v>44623</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -5131,8 +5139,8 @@
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -5179,8 +5187,8 @@
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -5227,8 +5235,8 @@
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -5275,8 +5283,8 @@
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -5323,8 +5331,8 @@
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -5371,8 +5379,8 @@
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -5419,8 +5427,8 @@
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -5467,8 +5475,8 @@
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -5483,7 +5491,9 @@
       <c r="E90" s="3">
         <v>44584</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="3">
+        <v>44616</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -5513,8 +5523,8 @@
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -5529,7 +5539,9 @@
       <c r="E91" s="3">
         <v>44608</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="F91" s="3">
+        <v>44616</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -5559,8 +5571,8 @@
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -5607,8 +5619,8 @@
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -5623,7 +5635,9 @@
       <c r="E93" s="3">
         <v>44592</v>
       </c>
-      <c r="F93" s="2"/>
+      <c r="F93" s="3">
+        <v>44617</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -5653,8 +5667,8 @@
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5669,7 +5683,9 @@
       <c r="E94" s="3">
         <v>44611</v>
       </c>
-      <c r="F94" s="2"/>
+      <c r="F94" s="3">
+        <v>44619</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -5699,8 +5715,8 @@
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -5749,8 +5765,8 @@
       <c r="AG95" s="2"/>
       <c r="AH95" s="2"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -5762,8 +5778,12 @@
       <c r="D96" s="3">
         <v>44612</v>
       </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="E96" s="3">
+        <v>44615</v>
+      </c>
+      <c r="F96" s="3">
+        <v>44619</v>
+      </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -5793,8 +5813,8 @@
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -5806,8 +5826,12 @@
       <c r="D97" s="3">
         <v>44613</v>
       </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="E97" s="3">
+        <v>44614</v>
+      </c>
+      <c r="F97" s="3">
+        <v>44615</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -5837,7 +5861,7 @@
       <c r="AG97" s="2"/>
       <c r="AH97" s="2"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5873,7 +5897,7 @@
       <c r="AG98" s="2"/>
       <c r="AH98" s="2"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5909,7 +5933,7 @@
       <c r="AG99" s="2"/>
       <c r="AH99" s="2"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5945,7 +5969,7 @@
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5981,7 +6005,7 @@
       <c r="AG101" s="2"/>
       <c r="AH101" s="2"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6017,7 +6041,7 @@
       <c r="AG102" s="2"/>
       <c r="AH102" s="2"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6053,7 +6077,7 @@
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6089,7 +6113,7 @@
       <c r="AG104" s="2"/>
       <c r="AH104" s="2"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6125,7 +6149,7 @@
       <c r="AG105" s="2"/>
       <c r="AH105" s="2"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6161,7 +6185,7 @@
       <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6197,7 +6221,7 @@
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6233,7 +6257,7 @@
       <c r="AG108" s="2"/>
       <c r="AH108" s="2"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6269,7 +6293,7 @@
       <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6305,7 +6329,7 @@
       <c r="AG110" s="2"/>
       <c r="AH110" s="2"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6341,7 +6365,7 @@
       <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6377,7 +6401,7 @@
       <c r="AG112" s="2"/>
       <c r="AH112" s="2"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6413,7 +6437,7 @@
       <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6449,7 +6473,7 @@
       <c r="AG114" s="2"/>
       <c r="AH114" s="2"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6485,7 +6509,7 @@
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6521,7 +6545,7 @@
       <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6557,7 +6581,7 @@
       <c r="AG117" s="2"/>
       <c r="AH117" s="2"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6593,7 +6617,7 @@
       <c r="AG118" s="2"/>
       <c r="AH118" s="2"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6629,7 +6653,7 @@
       <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6665,7 +6689,7 @@
       <c r="AG120" s="2"/>
       <c r="AH120" s="2"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6701,7 +6725,7 @@
       <c r="AG121" s="2"/>
       <c r="AH121" s="2"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6737,7 +6761,7 @@
       <c r="AG122" s="2"/>
       <c r="AH122" s="2"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6773,7 +6797,7 @@
       <c r="AG123" s="2"/>
       <c r="AH123" s="2"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6809,7 +6833,7 @@
       <c r="AG124" s="2"/>
       <c r="AH124" s="2"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6845,7 +6869,7 @@
       <c r="AG125" s="2"/>
       <c r="AH125" s="2"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6881,7 +6905,7 @@
       <c r="AG126" s="2"/>
       <c r="AH126" s="2"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6917,7 +6941,7 @@
       <c r="AG127" s="2"/>
       <c r="AH127" s="2"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6953,7 +6977,7 @@
       <c r="AG128" s="2"/>
       <c r="AH128" s="2"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6989,7 +7013,7 @@
       <c r="AG129" s="2"/>
       <c r="AH129" s="2"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7025,7 +7049,7 @@
       <c r="AG130" s="2"/>
       <c r="AH130" s="2"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7061,7 +7085,7 @@
       <c r="AG131" s="2"/>
       <c r="AH131" s="2"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7097,7 +7121,7 @@
       <c r="AG132" s="2"/>
       <c r="AH132" s="2"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7133,7 +7157,7 @@
       <c r="AG133" s="2"/>
       <c r="AH133" s="2"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7169,7 +7193,7 @@
       <c r="AG134" s="2"/>
       <c r="AH134" s="2"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7205,7 +7229,7 @@
       <c r="AG135" s="2"/>
       <c r="AH135" s="2"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7241,7 +7265,7 @@
       <c r="AG136" s="2"/>
       <c r="AH136" s="2"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7277,7 +7301,7 @@
       <c r="AG137" s="2"/>
       <c r="AH137" s="2"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7313,7 +7337,7 @@
       <c r="AG138" s="2"/>
       <c r="AH138" s="2"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7349,7 +7373,7 @@
       <c r="AG139" s="2"/>
       <c r="AH139" s="2"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7385,7 +7409,7 @@
       <c r="AG140" s="2"/>
       <c r="AH140" s="2"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7421,7 +7445,7 @@
       <c r="AG141" s="2"/>
       <c r="AH141" s="2"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7457,7 +7481,7 @@
       <c r="AG142" s="2"/>
       <c r="AH142" s="2"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7493,7 +7517,7 @@
       <c r="AG143" s="2"/>
       <c r="AH143" s="2"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7529,7 +7553,7 @@
       <c r="AG144" s="2"/>
       <c r="AH144" s="2"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7565,7 +7589,7 @@
       <c r="AG145" s="2"/>
       <c r="AH145" s="2"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7601,7 +7625,7 @@
       <c r="AG146" s="2"/>
       <c r="AH146" s="2"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7637,7 +7661,7 @@
       <c r="AG147" s="2"/>
       <c r="AH147" s="2"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7673,7 +7697,7 @@
       <c r="AG148" s="2"/>
       <c r="AH148" s="2"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7709,7 +7733,7 @@
       <c r="AG149" s="2"/>
       <c r="AH149" s="2"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7745,7 +7769,7 @@
       <c r="AG150" s="2"/>
       <c r="AH150" s="2"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7781,7 +7805,7 @@
       <c r="AG151" s="2"/>
       <c r="AH151" s="2"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7817,7 +7841,7 @@
       <c r="AG152" s="2"/>
       <c r="AH152" s="2"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -7853,7 +7877,7 @@
       <c r="AG153" s="2"/>
       <c r="AH153" s="2"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -7889,7 +7913,7 @@
       <c r="AG154" s="2"/>
       <c r="AH154" s="2"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7925,7 +7949,7 @@
       <c r="AG155" s="2"/>
       <c r="AH155" s="2"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -7961,7 +7985,7 @@
       <c r="AG156" s="2"/>
       <c r="AH156" s="2"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -7997,7 +8021,7 @@
       <c r="AG157" s="2"/>
       <c r="AH157" s="2"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8033,7 +8057,7 @@
       <c r="AG158" s="2"/>
       <c r="AH158" s="2"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8069,7 +8093,7 @@
       <c r="AG159" s="2"/>
       <c r="AH159" s="2"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8105,7 +8129,7 @@
       <c r="AG160" s="2"/>
       <c r="AH160" s="2"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8141,7 +8165,7 @@
       <c r="AG161" s="2"/>
       <c r="AH161" s="2"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8177,7 +8201,7 @@
       <c r="AG162" s="2"/>
       <c r="AH162" s="2"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8213,7 +8237,7 @@
       <c r="AG163" s="2"/>
       <c r="AH163" s="2"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8249,7 +8273,7 @@
       <c r="AG164" s="2"/>
       <c r="AH164" s="2"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8285,7 +8309,7 @@
       <c r="AG165" s="2"/>
       <c r="AH165" s="2"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8321,7 +8345,7 @@
       <c r="AG166" s="2"/>
       <c r="AH166" s="2"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8357,7 +8381,7 @@
       <c r="AG167" s="2"/>
       <c r="AH167" s="2"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8393,7 +8417,7 @@
       <c r="AG168" s="2"/>
       <c r="AH168" s="2"/>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8429,7 +8453,7 @@
       <c r="AG169" s="2"/>
       <c r="AH169" s="2"/>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8465,7 +8489,7 @@
       <c r="AG170" s="2"/>
       <c r="AH170" s="2"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8501,7 +8525,7 @@
       <c r="AG171" s="2"/>
       <c r="AH171" s="2"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -8537,7 +8561,7 @@
       <c r="AG172" s="2"/>
       <c r="AH172" s="2"/>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -8573,7 +8597,7 @@
       <c r="AG173" s="2"/>
       <c r="AH173" s="2"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -8609,7 +8633,7 @@
       <c r="AG174" s="2"/>
       <c r="AH174" s="2"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -8645,7 +8669,7 @@
       <c r="AG175" s="2"/>
       <c r="AH175" s="2"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -8681,7 +8705,7 @@
       <c r="AG176" s="2"/>
       <c r="AH176" s="2"/>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -8717,7 +8741,7 @@
       <c r="AG177" s="2"/>
       <c r="AH177" s="2"/>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -8753,7 +8777,7 @@
       <c r="AG178" s="2"/>
       <c r="AH178" s="2"/>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -8789,7 +8813,7 @@
       <c r="AG179" s="2"/>
       <c r="AH179" s="2"/>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -8825,7 +8849,7 @@
       <c r="AG180" s="2"/>
       <c r="AH180" s="2"/>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -8861,7 +8885,7 @@
       <c r="AG181" s="2"/>
       <c r="AH181" s="2"/>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -8897,7 +8921,7 @@
       <c r="AG182" s="2"/>
       <c r="AH182" s="2"/>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -8933,7 +8957,7 @@
       <c r="AG183" s="2"/>
       <c r="AH183" s="2"/>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8969,7 +8993,7 @@
       <c r="AG184" s="2"/>
       <c r="AH184" s="2"/>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9005,7 +9029,7 @@
       <c r="AG185" s="2"/>
       <c r="AH185" s="2"/>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9041,7 +9065,7 @@
       <c r="AG186" s="2"/>
       <c r="AH186" s="2"/>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9077,7 +9101,7 @@
       <c r="AG187" s="2"/>
       <c r="AH187" s="2"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9113,7 +9137,7 @@
       <c r="AG188" s="2"/>
       <c r="AH188" s="2"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9149,7 +9173,7 @@
       <c r="AG189" s="2"/>
       <c r="AH189" s="2"/>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9185,7 +9209,7 @@
       <c r="AG190" s="2"/>
       <c r="AH190" s="2"/>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9221,7 +9245,7 @@
       <c r="AG191" s="2"/>
       <c r="AH191" s="2"/>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9257,7 +9281,7 @@
       <c r="AG192" s="2"/>
       <c r="AH192" s="2"/>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9293,7 +9317,7 @@
       <c r="AG193" s="2"/>
       <c r="AH193" s="2"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9329,7 +9353,7 @@
       <c r="AG194" s="2"/>
       <c r="AH194" s="2"/>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9365,7 +9389,7 @@
       <c r="AG195" s="2"/>
       <c r="AH195" s="2"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -9401,7 +9425,7 @@
       <c r="AG196" s="2"/>
       <c r="AH196" s="2"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -9437,7 +9461,7 @@
       <c r="AG197" s="2"/>
       <c r="AH197" s="2"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -9473,7 +9497,7 @@
       <c r="AG198" s="2"/>
       <c r="AH198" s="2"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -9509,7 +9533,7 @@
       <c r="AG199" s="2"/>
       <c r="AH199" s="2"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -9545,7 +9569,7 @@
       <c r="AG200" s="2"/>
       <c r="AH200" s="2"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -9581,7 +9605,7 @@
       <c r="AG201" s="2"/>
       <c r="AH201" s="2"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -9617,7 +9641,7 @@
       <c r="AG202" s="2"/>
       <c r="AH202" s="2"/>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -9653,7 +9677,7 @@
       <c r="AG203" s="2"/>
       <c r="AH203" s="2"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -9689,7 +9713,7 @@
       <c r="AG204" s="2"/>
       <c r="AH204" s="2"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -9725,7 +9749,7 @@
       <c r="AG205" s="2"/>
       <c r="AH205" s="2"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -9761,7 +9785,7 @@
       <c r="AG206" s="2"/>
       <c r="AH206" s="2"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -9797,7 +9821,7 @@
       <c r="AG207" s="2"/>
       <c r="AH207" s="2"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -9833,7 +9857,7 @@
       <c r="AG208" s="2"/>
       <c r="AH208" s="2"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -9869,7 +9893,7 @@
       <c r="AG209" s="2"/>
       <c r="AH209" s="2"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -9905,7 +9929,7 @@
       <c r="AG210" s="2"/>
       <c r="AH210" s="2"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -9941,7 +9965,7 @@
       <c r="AG211" s="2"/>
       <c r="AH211" s="2"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -9977,7 +10001,7 @@
       <c r="AG212" s="2"/>
       <c r="AH212" s="2"/>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10013,7 +10037,7 @@
       <c r="AG213" s="2"/>
       <c r="AH213" s="2"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10049,7 +10073,7 @@
       <c r="AG214" s="2"/>
       <c r="AH214" s="2"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10085,7 +10109,7 @@
       <c r="AG215" s="2"/>
       <c r="AH215" s="2"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10121,7 +10145,7 @@
       <c r="AG216" s="2"/>
       <c r="AH216" s="2"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -10157,7 +10181,7 @@
       <c r="AG217" s="2"/>
       <c r="AH217" s="2"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -10193,7 +10217,7 @@
       <c r="AG218" s="2"/>
       <c r="AH218" s="2"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -10229,7 +10253,7 @@
       <c r="AG219" s="2"/>
       <c r="AH219" s="2"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -10265,7 +10289,7 @@
       <c r="AG220" s="2"/>
       <c r="AH220" s="2"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -10301,7 +10325,7 @@
       <c r="AG221" s="2"/>
       <c r="AH221" s="2"/>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -10337,7 +10361,7 @@
       <c r="AG222" s="2"/>
       <c r="AH222" s="2"/>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -10373,7 +10397,7 @@
       <c r="AG223" s="2"/>
       <c r="AH223" s="2"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -10409,7 +10433,7 @@
       <c r="AG224" s="2"/>
       <c r="AH224" s="2"/>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -10445,7 +10469,7 @@
       <c r="AG225" s="2"/>
       <c r="AH225" s="2"/>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -10481,7 +10505,7 @@
       <c r="AG226" s="2"/>
       <c r="AH226" s="2"/>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -10517,7 +10541,7 @@
       <c r="AG227" s="2"/>
       <c r="AH227" s="2"/>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -10553,7 +10577,7 @@
       <c r="AG228" s="2"/>
       <c r="AH228" s="2"/>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -10589,7 +10613,7 @@
       <c r="AG229" s="2"/>
       <c r="AH229" s="2"/>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -10625,7 +10649,7 @@
       <c r="AG230" s="2"/>
       <c r="AH230" s="2"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -10661,7 +10685,7 @@
       <c r="AG231" s="2"/>
       <c r="AH231" s="2"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -10697,7 +10721,7 @@
       <c r="AG232" s="2"/>
       <c r="AH232" s="2"/>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -10733,7 +10757,7 @@
       <c r="AG233" s="2"/>
       <c r="AH233" s="2"/>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -10769,7 +10793,7 @@
       <c r="AG234" s="2"/>
       <c r="AH234" s="2"/>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -10805,7 +10829,7 @@
       <c r="AG235" s="2"/>
       <c r="AH235" s="2"/>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -10841,7 +10865,7 @@
       <c r="AG236" s="2"/>
       <c r="AH236" s="2"/>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -10877,7 +10901,7 @@
       <c r="AG237" s="2"/>
       <c r="AH237" s="2"/>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -10913,7 +10937,7 @@
       <c r="AG238" s="2"/>
       <c r="AH238" s="2"/>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -10949,7 +10973,7 @@
       <c r="AG239" s="2"/>
       <c r="AH239" s="2"/>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -10985,7 +11009,7 @@
       <c r="AG240" s="2"/>
       <c r="AH240" s="2"/>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -11021,7 +11045,7 @@
       <c r="AG241" s="2"/>
       <c r="AH241" s="2"/>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -11057,7 +11081,7 @@
       <c r="AG242" s="2"/>
       <c r="AH242" s="2"/>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -11093,7 +11117,7 @@
       <c r="AG243" s="2"/>
       <c r="AH243" s="2"/>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -11129,7 +11153,7 @@
       <c r="AG244" s="2"/>
       <c r="AH244" s="2"/>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -11165,7 +11189,7 @@
       <c r="AG245" s="2"/>
       <c r="AH245" s="2"/>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -11201,7 +11225,7 @@
       <c r="AG246" s="2"/>
       <c r="AH246" s="2"/>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -11237,7 +11261,7 @@
       <c r="AG247" s="2"/>
       <c r="AH247" s="2"/>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -11273,7 +11297,7 @@
       <c r="AG248" s="2"/>
       <c r="AH248" s="2"/>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -11309,7 +11333,7 @@
       <c r="AG249" s="2"/>
       <c r="AH249" s="2"/>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -11345,7 +11369,7 @@
       <c r="AG250" s="2"/>
       <c r="AH250" s="2"/>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -11381,7 +11405,7 @@
       <c r="AG251" s="2"/>
       <c r="AH251" s="2"/>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -11417,7 +11441,7 @@
       <c r="AG252" s="2"/>
       <c r="AH252" s="2"/>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -11453,7 +11477,7 @@
       <c r="AG253" s="2"/>
       <c r="AH253" s="2"/>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -11489,7 +11513,7 @@
       <c r="AG254" s="2"/>
       <c r="AH254" s="2"/>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -11525,7 +11549,7 @@
       <c r="AG255" s="2"/>
       <c r="AH255" s="2"/>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -11561,7 +11585,7 @@
       <c r="AG256" s="2"/>
       <c r="AH256" s="2"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -11597,7 +11621,7 @@
       <c r="AG257" s="2"/>
       <c r="AH257" s="2"/>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -11633,7 +11657,7 @@
       <c r="AG258" s="2"/>
       <c r="AH258" s="2"/>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -11669,7 +11693,7 @@
       <c r="AG259" s="2"/>
       <c r="AH259" s="2"/>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -11705,7 +11729,7 @@
       <c r="AG260" s="2"/>
       <c r="AH260" s="2"/>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -11741,7 +11765,7 @@
       <c r="AG261" s="2"/>
       <c r="AH261" s="2"/>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -11777,7 +11801,7 @@
       <c r="AG262" s="2"/>
       <c r="AH262" s="2"/>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -11813,7 +11837,7 @@
       <c r="AG263" s="2"/>
       <c r="AH263" s="2"/>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -11849,7 +11873,7 @@
       <c r="AG264" s="2"/>
       <c r="AH264" s="2"/>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -11885,7 +11909,7 @@
       <c r="AG265" s="2"/>
       <c r="AH265" s="2"/>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -11921,7 +11945,7 @@
       <c r="AG266" s="2"/>
       <c r="AH266" s="2"/>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -11957,7 +11981,7 @@
       <c r="AG267" s="2"/>
       <c r="AH267" s="2"/>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -11993,7 +12017,7 @@
       <c r="AG268" s="2"/>
       <c r="AH268" s="2"/>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -12029,7 +12053,7 @@
       <c r="AG269" s="2"/>
       <c r="AH269" s="2"/>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -12065,7 +12089,7 @@
       <c r="AG270" s="2"/>
       <c r="AH270" s="2"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -12101,7 +12125,7 @@
       <c r="AG271" s="2"/>
       <c r="AH271" s="2"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -12137,7 +12161,7 @@
       <c r="AG272" s="2"/>
       <c r="AH272" s="2"/>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -12173,7 +12197,7 @@
       <c r="AG273" s="2"/>
       <c r="AH273" s="2"/>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -12209,7 +12233,7 @@
       <c r="AG274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -12245,7 +12269,7 @@
       <c r="AG275" s="2"/>
       <c r="AH275" s="2"/>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -12281,7 +12305,7 @@
       <c r="AG276" s="2"/>
       <c r="AH276" s="2"/>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -12317,7 +12341,7 @@
       <c r="AG277" s="2"/>
       <c r="AH277" s="2"/>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -12353,7 +12377,7 @@
       <c r="AG278" s="2"/>
       <c r="AH278" s="2"/>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -12389,7 +12413,7 @@
       <c r="AG279" s="2"/>
       <c r="AH279" s="2"/>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -12425,7 +12449,7 @@
       <c r="AG280" s="2"/>
       <c r="AH280" s="2"/>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -12461,7 +12485,7 @@
       <c r="AG281" s="2"/>
       <c r="AH281" s="2"/>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -12497,7 +12521,7 @@
       <c r="AG282" s="2"/>
       <c r="AH282" s="2"/>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -12533,7 +12557,7 @@
       <c r="AG283" s="2"/>
       <c r="AH283" s="2"/>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -12569,7 +12593,7 @@
       <c r="AG284" s="2"/>
       <c r="AH284" s="2"/>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -12605,7 +12629,7 @@
       <c r="AG285" s="2"/>
       <c r="AH285" s="2"/>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -12641,7 +12665,7 @@
       <c r="AG286" s="2"/>
       <c r="AH286" s="2"/>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -12677,7 +12701,7 @@
       <c r="AG287" s="2"/>
       <c r="AH287" s="2"/>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -12713,7 +12737,7 @@
       <c r="AG288" s="2"/>
       <c r="AH288" s="2"/>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -12749,7 +12773,7 @@
       <c r="AG289" s="2"/>
       <c r="AH289" s="2"/>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -12785,7 +12809,7 @@
       <c r="AG290" s="2"/>
       <c r="AH290" s="2"/>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -12821,7 +12845,7 @@
       <c r="AG291" s="2"/>
       <c r="AH291" s="2"/>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -12857,7 +12881,7 @@
       <c r="AG292" s="2"/>
       <c r="AH292" s="2"/>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -12893,7 +12917,7 @@
       <c r="AG293" s="2"/>
       <c r="AH293" s="2"/>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -12929,7 +12953,7 @@
       <c r="AG294" s="2"/>
       <c r="AH294" s="2"/>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -12965,7 +12989,7 @@
       <c r="AG295" s="2"/>
       <c r="AH295" s="2"/>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -13001,7 +13025,7 @@
       <c r="AG296" s="2"/>
       <c r="AH296" s="2"/>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -13037,7 +13061,7 @@
       <c r="AG297" s="2"/>
       <c r="AH297" s="2"/>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -13073,7 +13097,7 @@
       <c r="AG298" s="2"/>
       <c r="AH298" s="2"/>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -13109,7 +13133,7 @@
       <c r="AG299" s="2"/>
       <c r="AH299" s="2"/>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -13145,7 +13169,7 @@
       <c r="AG300" s="2"/>
       <c r="AH300" s="2"/>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -13181,7 +13205,7 @@
       <c r="AG301" s="2"/>
       <c r="AH301" s="2"/>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -13230,12 +13254,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -13246,7 +13270,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -13254,7 +13278,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13262,7 +13286,7 @@
         <v>44328</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -13273,7 +13297,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -13284,7 +13308,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -13295,7 +13319,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -13309,7 +13333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -13317,7 +13341,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -13325,7 +13349,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -13333,7 +13357,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -13341,7 +13365,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -13349,7 +13373,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -13357,7 +13381,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -13371,7 +13395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -13379,7 +13403,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -13387,7 +13411,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -13395,7 +13419,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -13406,7 +13430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -13417,47 +13441,47 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DFB34B-7D46-49F3-9097-CD96E6301DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7EA5E6-F398-4CCD-912F-602DE7DD251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="218">
   <si>
     <t>Two Sums</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Revisit</t>
   </si>
   <si>
-    <t>similar to merge intervals</t>
-  </si>
-  <si>
     <t>revisit</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>One Pass</t>
   </si>
   <si>
-    <t>Has Set or Sorting</t>
-  </si>
-  <si>
     <t>Users By Avg Session Time</t>
   </si>
   <si>
@@ -631,9 +625,6 @@
     <t>Binary Tree Vertical Order Traversal</t>
   </si>
   <si>
-    <t>DFS</t>
-  </si>
-  <si>
     <t>Minimum Add to Make Parentheses Valid</t>
   </si>
   <si>
@@ -680,6 +671,24 @@
   </si>
   <si>
     <t>BFS with 2 queues or sentinel</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Hash Set or Sorting</t>
+  </si>
+  <si>
+    <t>similar to merge intervals break into 3 parts</t>
+  </si>
+  <si>
+    <t>sort or quickselect</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>quickselect</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1114,9 @@
       <c r="H1" s="3">
         <v>44456</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3">
+        <v>44667</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1137,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1197,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1265,7 +1276,9 @@
       <c r="F4" s="3">
         <v>44457</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3">
+        <v>44671</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1313,7 +1326,9 @@
       <c r="F5" s="3">
         <v>44457</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3">
+        <v>44672</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1361,7 +1376,9 @@
       <c r="F6" s="3">
         <v>44457</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3">
+        <v>44673</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1409,7 +1426,9 @@
       <c r="F7" s="3">
         <v>44458</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3">
+        <v>44673</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1457,7 +1476,9 @@
       <c r="F8" s="3">
         <v>44458</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3">
+        <v>44673</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1491,7 +1512,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1595,7 +1616,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1815,7 +1836,9 @@
       <c r="F15" s="3">
         <v>44460</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="3">
+        <v>44675</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1967,7 +1990,9 @@
       <c r="F18" s="3">
         <v>44462</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="3">
+        <v>44675</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2050,7 +2075,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
@@ -2071,7 +2096,7 @@
         <v>44362</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I20" s="3">
         <v>44417</v>
@@ -2122,8 +2147,12 @@
       <c r="E21" s="3">
         <v>44463</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="3">
+        <v>44675</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44694</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2157,7 +2186,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -2171,7 +2200,9 @@
       <c r="F22" s="3">
         <v>44464</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="3">
+        <v>44694</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2202,7 +2233,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -2219,7 +2250,9 @@
       <c r="F23" s="3">
         <v>44464</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="3">
+        <v>44694</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2250,10 +2283,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
@@ -2264,8 +2297,12 @@
       <c r="E24" s="3">
         <v>44465</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="3">
+        <v>44677</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44695</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2296,10 +2333,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -2310,8 +2347,12 @@
       <c r="E25" s="3">
         <v>44466</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="3">
+        <v>44678</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44695</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2342,10 +2383,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
@@ -2356,8 +2397,12 @@
       <c r="E26" s="3">
         <v>44466</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="3">
+        <v>44679</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44696</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2388,10 +2433,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -2402,8 +2447,12 @@
       <c r="E27" s="3">
         <v>44466</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="3">
+        <v>44679</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44696</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2437,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
@@ -2448,8 +2497,12 @@
       <c r="E28" s="3">
         <v>44466</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="3">
+        <v>44681</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44697</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2480,10 +2533,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
@@ -2535,11 +2588,11 @@
       <c r="AH29" s="2"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>86</v>
+      <c r="A30" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -2553,7 +2606,9 @@
       <c r="F30" s="3">
         <v>44467</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="3">
+        <v>44698</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2584,10 +2639,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
@@ -2601,7 +2656,9 @@
       <c r="F31" s="3">
         <v>44468</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="3">
+        <v>44699</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2632,10 +2689,10 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
@@ -2658,7 +2715,9 @@
       <c r="I32" s="3">
         <v>44476</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="3">
+        <v>44687</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2686,10 +2745,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
@@ -2715,7 +2774,9 @@
       <c r="J33" s="3">
         <v>44476</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="3">
+        <v>44688</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2742,10 +2803,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
@@ -2756,8 +2817,12 @@
       <c r="E34" s="3">
         <v>44477</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44700</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2788,10 +2853,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
@@ -2802,8 +2867,12 @@
       <c r="E35" s="3">
         <v>44477</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="3">
+        <v>44683</v>
+      </c>
+      <c r="G35" s="3">
+        <v>44684</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2837,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
@@ -2863,7 +2932,9 @@
       <c r="J36" s="3">
         <v>44481</v>
       </c>
-      <c r="K36" s="2"/>
+      <c r="K36" s="3">
+        <v>44668</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2890,10 +2961,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -2904,8 +2975,12 @@
       <c r="E37" s="3">
         <v>44490</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="3">
+        <v>44685</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44687</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2936,10 +3011,10 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>24</v>
@@ -2953,8 +3028,12 @@
       <c r="F38" s="3">
         <v>44490</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="3">
+        <v>44686</v>
+      </c>
+      <c r="H38" s="3">
+        <v>44687</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2984,10 +3063,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
@@ -2998,8 +3077,12 @@
       <c r="E39" s="3">
         <v>44491</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="3">
+        <v>44688</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44702</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -3030,7 +3113,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
@@ -3044,8 +3127,12 @@
       <c r="E40" s="3">
         <v>44491</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="3">
+        <v>44689</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44702</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -3076,10 +3163,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
@@ -3090,8 +3177,12 @@
       <c r="E41" s="3">
         <v>44492</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="3">
+        <v>44691</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44702</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3122,10 +3213,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
@@ -3136,9 +3227,15 @@
       <c r="E42" s="3">
         <v>44493</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="F42" s="3">
+        <v>44692</v>
+      </c>
+      <c r="G42" s="3">
+        <v>44728</v>
+      </c>
+      <c r="H42" s="3">
+        <v>44732</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -3168,10 +3265,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
@@ -3182,9 +3279,15 @@
       <c r="E43" s="3">
         <v>44493</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="F43" s="3">
+        <v>44693</v>
+      </c>
+      <c r="G43" s="3">
+        <v>44731</v>
+      </c>
+      <c r="H43" s="3">
+        <v>44732</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -3214,10 +3317,10 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -3270,10 +3373,10 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
@@ -3319,10 +3422,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -3333,8 +3436,12 @@
       <c r="E46" s="3">
         <v>44494</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="3">
+        <v>44732</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44747</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -3365,10 +3472,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
@@ -3379,8 +3486,12 @@
       <c r="E47" s="3">
         <v>44495</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="3">
+        <v>44733</v>
+      </c>
+      <c r="G47" s="3">
+        <v>44752</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -3411,10 +3522,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
@@ -3428,7 +3539,9 @@
       <c r="F48" s="3">
         <v>44495</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="3">
+        <v>44756</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3459,10 +3572,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
@@ -3513,10 +3626,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
@@ -3527,8 +3640,12 @@
       <c r="E50" s="3">
         <v>44497</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="3">
+        <v>44735</v>
+      </c>
+      <c r="G50" s="3">
+        <v>44758</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3559,10 +3676,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
@@ -3573,9 +3690,15 @@
       <c r="E51" s="3">
         <v>44498</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="F51" s="3">
+        <v>44736</v>
+      </c>
+      <c r="G51" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H51" s="3">
+        <v>44770</v>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -3605,10 +3728,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
@@ -3619,8 +3742,12 @@
       <c r="E52" s="3">
         <v>44499</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="3">
+        <v>44740</v>
+      </c>
+      <c r="G52" s="3">
+        <v>44771</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -3651,7 +3778,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>36</v>
@@ -3665,8 +3792,12 @@
       <c r="E53" s="3">
         <v>44499</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="3">
+        <v>44741</v>
+      </c>
+      <c r="G53" s="3">
+        <v>44772</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -3697,10 +3828,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
@@ -3711,8 +3842,12 @@
       <c r="E54" s="3">
         <v>44500</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="F54" s="3">
+        <v>44744</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44773</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -3743,10 +3878,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
@@ -3757,7 +3892,9 @@
       <c r="E55" s="3">
         <v>44500</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="3">
+        <v>44745</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3789,10 +3926,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
@@ -3803,7 +3940,9 @@
       <c r="E56" s="3">
         <v>44501</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="3">
+        <v>44746</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3835,10 +3974,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
@@ -3889,10 +4028,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
@@ -3941,10 +4080,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
@@ -3989,10 +4128,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
@@ -4043,10 +4182,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -4095,10 +4234,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
@@ -4147,10 +4286,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
@@ -4199,10 +4338,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
@@ -4251,10 +4390,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
@@ -4305,10 +4444,10 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -4357,10 +4496,10 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
@@ -4409,10 +4548,10 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
@@ -4459,10 +4598,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
@@ -4509,10 +4648,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
@@ -4559,10 +4698,10 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>24</v>
@@ -4609,10 +4748,10 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
@@ -4659,10 +4798,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -4699,10 +4838,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
@@ -4710,7 +4849,9 @@
       <c r="D74" s="3">
         <v>44421</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="3">
+        <v>44670</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -4743,10 +4884,10 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
@@ -4793,10 +4934,10 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
@@ -4841,10 +4982,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
@@ -4858,7 +4999,9 @@
       <c r="F77" s="3">
         <v>44517</v>
       </c>
-      <c r="G77" s="2"/>
+      <c r="G77" s="3">
+        <v>44659</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4889,10 +5032,10 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
@@ -4941,10 +5084,10 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
@@ -4961,7 +5104,9 @@
       <c r="G79" s="3">
         <v>44621</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="3">
+        <v>44642</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -4991,10 +5136,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
@@ -5011,7 +5156,9 @@
       <c r="G80" s="3">
         <v>44620</v>
       </c>
-      <c r="H80" s="2"/>
+      <c r="H80" s="3">
+        <v>44642</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -5041,10 +5188,10 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
@@ -5061,7 +5208,9 @@
       <c r="G81" s="3">
         <v>44622</v>
       </c>
-      <c r="H81" s="2"/>
+      <c r="H81" s="3">
+        <v>44643</v>
+      </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -5091,10 +5240,10 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
@@ -5111,7 +5260,9 @@
       <c r="G82" s="3">
         <v>44623</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="3">
+        <v>44644</v>
+      </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -5141,10 +5292,10 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
@@ -5158,8 +5309,12 @@
       <c r="F83" s="3">
         <v>44570</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="G83" s="3">
+        <v>44626</v>
+      </c>
+      <c r="H83" s="3">
+        <v>44644</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -5189,10 +5344,10 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -5206,8 +5361,12 @@
       <c r="F84" s="3">
         <v>44570</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="G84" s="3">
+        <v>44627</v>
+      </c>
+      <c r="H84" s="3">
+        <v>44644</v>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -5237,10 +5396,10 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
@@ -5254,8 +5413,12 @@
       <c r="F85" s="3">
         <v>44571</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="G85" s="3">
+        <v>44628</v>
+      </c>
+      <c r="H85" s="3">
+        <v>44645</v>
+      </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -5285,10 +5448,10 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
@@ -5302,8 +5465,12 @@
       <c r="F86" s="3">
         <v>44572</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="G86" s="3">
+        <v>44629</v>
+      </c>
+      <c r="H86" s="3">
+        <v>44646</v>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5333,10 +5500,10 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
@@ -5350,8 +5517,12 @@
       <c r="F87" s="3">
         <v>44572</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="G87" s="3">
+        <v>44630</v>
+      </c>
+      <c r="H87" s="3">
+        <v>44647</v>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5381,10 +5552,10 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
@@ -5398,8 +5569,12 @@
       <c r="F88" s="3">
         <v>44572</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="G88" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H88" s="3">
+        <v>44647</v>
+      </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -5429,10 +5604,10 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
@@ -5446,8 +5621,12 @@
       <c r="F89" s="3">
         <v>44581</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="G89" s="3">
+        <v>44631</v>
+      </c>
+      <c r="H89" s="3">
+        <v>44648</v>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5477,10 +5656,10 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
@@ -5494,8 +5673,12 @@
       <c r="F90" s="3">
         <v>44616</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="G90" s="3">
+        <v>44631</v>
+      </c>
+      <c r="H90" s="3">
+        <v>44649</v>
+      </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5525,10 +5708,10 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
@@ -5542,8 +5725,12 @@
       <c r="F91" s="3">
         <v>44616</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="G91" s="3">
+        <v>44636</v>
+      </c>
+      <c r="H91" s="3">
+        <v>44651</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5573,13 +5760,13 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D92" s="3">
         <v>44588</v>
@@ -5590,8 +5777,12 @@
       <c r="F92" s="3">
         <v>44610</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="G92" s="3">
+        <v>44637</v>
+      </c>
+      <c r="H92" s="3">
+        <v>44652</v>
+      </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5621,10 +5812,10 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
@@ -5638,8 +5829,12 @@
       <c r="F93" s="3">
         <v>44617</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="G93" s="3">
+        <v>44638</v>
+      </c>
+      <c r="H93" s="3">
+        <v>44653</v>
+      </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -5669,10 +5864,10 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
@@ -5686,8 +5881,12 @@
       <c r="F94" s="3">
         <v>44619</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="G94" s="3">
+        <v>44638</v>
+      </c>
+      <c r="H94" s="3">
+        <v>44653</v>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -5717,10 +5916,10 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
@@ -5737,9 +5936,15 @@
       <c r="G95" s="3">
         <v>44607</v>
       </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
+      <c r="H95" s="3">
+        <v>44654</v>
+      </c>
+      <c r="I95" s="3">
+        <v>44657</v>
+      </c>
+      <c r="J95" s="3">
+        <v>44763</v>
+      </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -5767,10 +5972,10 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
@@ -5784,8 +5989,12 @@
       <c r="F96" s="3">
         <v>44619</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="G96" s="3">
+        <v>44639</v>
+      </c>
+      <c r="H96" s="3">
+        <v>44655</v>
+      </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -5815,10 +6024,10 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
@@ -5832,8 +6041,12 @@
       <c r="F97" s="3">
         <v>44615</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="G97" s="3">
+        <v>44640</v>
+      </c>
+      <c r="H97" s="3">
+        <v>44655</v>
+      </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -5862,11 +6075,21 @@
       <c r="AH97" s="2"/>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3">
+        <v>44765</v>
+      </c>
+      <c r="E98" s="3">
+        <v>44768</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -13243,6 +13466,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13397,7 +13621,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>44356</v>
@@ -13405,7 +13629,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>44356</v>
@@ -13413,7 +13637,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1">
         <v>44357</v>
@@ -13421,69 +13645,69 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1">
         <v>44363</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1">
         <v>44364</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7EA5E6-F398-4CCD-912F-602DE7DD251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8200D071-C271-4568-9652-B5755E77DF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
+    <workbookView xWindow="0" yWindow="2055" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="230">
   <si>
     <t>Two Sums</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Meeting Rooms</t>
   </si>
   <si>
-    <t>two pointers, array, greedy, sorting</t>
-  </si>
-  <si>
     <t>sort, similar to merge intervals</t>
   </si>
   <si>
@@ -484,9 +481,6 @@
     <t>Iterative, shrink matrix</t>
   </si>
   <si>
-    <t>Minimum Deletion Cost to Avoid Repeating Letters</t>
-  </si>
-  <si>
     <t>iteration</t>
   </si>
   <si>
@@ -689,12 +683,57 @@
   </si>
   <si>
     <t>quickselect</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>horizontal scanning</t>
+  </si>
+  <si>
+    <t>Subdomain Visit Count</t>
+  </si>
+  <si>
+    <t>hashmap (counter)</t>
+  </si>
+  <si>
+    <t>Analyze User Website Visit Pattern</t>
+  </si>
+  <si>
+    <t>two pointers, array, greedy, sorting or heapq</t>
+  </si>
+  <si>
+    <t>Minimum Time to Make Rope Colorful</t>
+  </si>
+  <si>
+    <t>hashmap, sorting, combinations</t>
+  </si>
+  <si>
+    <t>Minimum Health to Beat Game</t>
+  </si>
+  <si>
+    <t>straight forward</t>
+  </si>
+  <si>
+    <t>Pairs of Songs With Total Durations Divisible by 60</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>Try with hasmap and basic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -754,13 +793,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1204,11 +1243,11 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1279,8 +1318,12 @@
       <c r="G4" s="3">
         <v>44671</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="7">
+        <v>44788</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44985</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1329,8 +1372,12 @@
       <c r="G5" s="3">
         <v>44672</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="7">
+        <v>44789</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44987</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1379,8 +1426,12 @@
       <c r="G6" s="3">
         <v>44673</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="3">
+        <v>44790</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44988</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1429,8 +1480,12 @@
       <c r="G7" s="3">
         <v>44673</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="3">
+        <v>44791</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44989</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1479,8 +1534,12 @@
       <c r="G8" s="3">
         <v>44673</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="3">
+        <v>44792</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44991</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1512,7 +1571,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1583,8 +1642,12 @@
       <c r="G10" s="3">
         <v>44459</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="3">
+        <v>44794</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44992</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1687,8 +1750,12 @@
       <c r="G12" s="3">
         <v>44460</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="3">
+        <v>44795</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44997</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1740,7 +1807,9 @@
       <c r="H13" s="3">
         <v>44460</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3">
+        <v>45001</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1789,8 +1858,12 @@
       <c r="G14" s="3">
         <v>44460</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="3">
+        <v>44797</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44999</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1839,8 +1912,12 @@
       <c r="G15" s="3">
         <v>44675</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="3">
+        <v>44797</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45003</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1889,8 +1966,12 @@
       <c r="G16" s="3">
         <v>44460</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="3">
+        <v>44798</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45003</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1993,8 +2074,12 @@
       <c r="G18" s="3">
         <v>44675</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="3">
+        <v>44799</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45004</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2046,7 +2131,9 @@
       <c r="H19" s="3">
         <v>44462</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="3">
+        <v>45005</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2153,8 +2240,12 @@
       <c r="G21" s="3">
         <v>44694</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="3">
+        <v>44822</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45006</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2186,7 +2277,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -2203,8 +2294,12 @@
       <c r="G22" s="3">
         <v>44694</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="3">
+        <v>44824</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45008</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2253,8 +2348,12 @@
       <c r="G23" s="3">
         <v>44694</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="3">
+        <v>44825</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45011</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2303,8 +2402,12 @@
       <c r="G24" s="3">
         <v>44695</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="3">
+        <v>44826</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45012</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2353,8 +2456,12 @@
       <c r="G25" s="3">
         <v>44695</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="3">
+        <v>44827</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45015</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2386,7 +2493,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
@@ -2403,8 +2510,12 @@
       <c r="G26" s="3">
         <v>44696</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="3">
+        <v>44828</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45039</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2453,7 +2564,9 @@
       <c r="G27" s="3">
         <v>44696</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="3">
+        <v>44829</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2503,7 +2616,9 @@
       <c r="G28" s="3">
         <v>44697</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="3">
+        <v>44831</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2592,7 +2707,7 @@
         <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -2609,7 +2724,9 @@
       <c r="G30" s="3">
         <v>44698</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="3">
+        <v>44833</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2642,7 +2759,7 @@
         <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
@@ -2659,7 +2776,9 @@
       <c r="G31" s="3">
         <v>44699</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="3">
+        <v>44836</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2823,7 +2942,9 @@
       <c r="G34" s="3">
         <v>44700</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="3">
+        <v>44838</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2873,7 +2994,9 @@
       <c r="G35" s="3">
         <v>44684</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="3">
+        <v>44839</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2906,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
@@ -2981,7 +3104,9 @@
       <c r="G37" s="3">
         <v>44687</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="3">
+        <v>44840</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3083,7 +3208,9 @@
       <c r="G39" s="3">
         <v>44702</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="3">
+        <v>44841</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -3133,7 +3260,9 @@
       <c r="G40" s="3">
         <v>44702</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="3">
+        <v>44842</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -3183,7 +3312,9 @@
       <c r="G41" s="3">
         <v>44702</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="3">
+        <v>44843</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3376,7 +3507,7 @@
         <v>106</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
@@ -3392,6 +3523,9 @@
       </c>
       <c r="G45" s="3">
         <v>44494</v>
+      </c>
+      <c r="H45" s="3">
+        <v>44844</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3421,11 +3555,11 @@
       <c r="AH45" s="2"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -3442,7 +3576,9 @@
       <c r="G46" s="3">
         <v>44747</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="3">
+        <v>44845</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3472,10 +3608,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
@@ -3492,7 +3628,9 @@
       <c r="G47" s="3">
         <v>44752</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="3">
+        <v>44846</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3522,10 +3660,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
@@ -3542,7 +3680,9 @@
       <c r="G48" s="3">
         <v>44756</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="3">
+        <v>44847</v>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -3572,10 +3712,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
@@ -3626,10 +3766,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
@@ -3646,7 +3786,9 @@
       <c r="G50" s="3">
         <v>44758</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="3">
+        <v>44849</v>
+      </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -3676,10 +3818,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
@@ -3728,10 +3870,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
@@ -3748,7 +3890,9 @@
       <c r="G52" s="3">
         <v>44771</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="3">
+        <v>44850</v>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -3778,7 +3922,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>36</v>
@@ -3798,7 +3942,9 @@
       <c r="G53" s="3">
         <v>44772</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="3">
+        <v>44851</v>
+      </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -3828,10 +3974,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
@@ -3848,7 +3994,9 @@
       <c r="G54" s="3">
         <v>44773</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="3">
+        <v>44852</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -3878,10 +4026,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
@@ -3895,8 +4043,12 @@
       <c r="F55" s="3">
         <v>44745</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="G55" s="3">
+        <v>44782</v>
+      </c>
+      <c r="H55" s="3">
+        <v>44854</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -3926,10 +4078,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
@@ -3943,8 +4095,12 @@
       <c r="F56" s="3">
         <v>44746</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="G56" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H56" s="3">
+        <v>44855</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -3974,10 +4130,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
@@ -4028,10 +4184,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
@@ -4080,10 +4236,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
@@ -4097,8 +4253,12 @@
       <c r="F59" s="3">
         <v>44503</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="3">
+        <v>44784</v>
+      </c>
+      <c r="H59" s="3">
+        <v>44856</v>
+      </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -4128,10 +4288,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
@@ -4182,10 +4342,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -4234,10 +4394,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
@@ -4286,10 +4446,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
@@ -4338,10 +4498,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
@@ -4390,10 +4550,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
@@ -4444,10 +4604,10 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -4496,10 +4656,10 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
@@ -4548,10 +4708,10 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
@@ -4568,7 +4728,9 @@
       <c r="G68" s="3">
         <v>44509</v>
       </c>
-      <c r="H68" s="2"/>
+      <c r="H68" s="3">
+        <v>44857</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -4598,10 +4760,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
@@ -4618,7 +4780,9 @@
       <c r="G69" s="3">
         <v>44509</v>
       </c>
-      <c r="H69" s="2"/>
+      <c r="H69" s="3">
+        <v>44858</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -4648,10 +4812,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
@@ -4668,7 +4832,9 @@
       <c r="G70" s="3">
         <v>44510</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="3">
+        <v>44859</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -4698,10 +4864,10 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>24</v>
@@ -4718,7 +4884,9 @@
       <c r="G71" s="3">
         <v>44511</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="3">
+        <v>44861</v>
+      </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -4748,10 +4916,10 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
@@ -4768,7 +4936,9 @@
       <c r="G72" s="3">
         <v>44512</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" s="3">
+        <v>44818</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -4797,11 +4967,11 @@
       <c r="AH72" s="2"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>158</v>
+      <c r="A73" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -4838,10 +5008,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
@@ -4852,9 +5022,15 @@
       <c r="E74" s="3">
         <v>44670</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="F74" s="3">
+        <v>44785</v>
+      </c>
+      <c r="G74" s="3">
+        <v>44801</v>
+      </c>
+      <c r="H74" s="3">
+        <v>44864</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -4884,10 +5060,10 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
@@ -4904,7 +5080,9 @@
       <c r="G75" s="3">
         <v>44513</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="3">
+        <v>44819</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -4934,10 +5112,10 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
@@ -4951,8 +5129,12 @@
       <c r="F76" s="3">
         <v>44514</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="G76" s="3">
+        <v>44817</v>
+      </c>
+      <c r="H76" s="3">
+        <v>44821</v>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -4982,10 +5164,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
@@ -5002,7 +5184,9 @@
       <c r="G77" s="3">
         <v>44659</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" s="3">
+        <v>44786</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -5031,11 +5215,11 @@
       <c r="AH77" s="2"/>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>167</v>
+      <c r="A78" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
@@ -5084,10 +5268,10 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
@@ -5136,10 +5320,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
@@ -5188,10 +5372,10 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
@@ -5240,10 +5424,10 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
@@ -5292,10 +5476,10 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
@@ -5344,10 +5528,10 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -5396,10 +5580,10 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
@@ -5448,10 +5632,10 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
@@ -5500,10 +5684,10 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
@@ -5552,10 +5736,10 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
@@ -5604,10 +5788,10 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
@@ -5656,10 +5840,10 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
@@ -5708,10 +5892,10 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
@@ -5760,13 +5944,13 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D92" s="3">
         <v>44588</v>
@@ -5812,10 +5996,10 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
@@ -5864,10 +6048,10 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
@@ -5916,10 +6100,10 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
@@ -5972,10 +6156,10 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
@@ -6024,10 +6208,10 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
@@ -6076,10 +6260,10 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
@@ -6090,9 +6274,15 @@
       <c r="E98" s="3">
         <v>44768</v>
       </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="F98" s="3">
+        <v>44787</v>
+      </c>
+      <c r="G98" s="3">
+        <v>44800</v>
+      </c>
+      <c r="H98" s="3">
+        <v>44865</v>
+      </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -6121,14 +6311,30 @@
       <c r="AH98" s="2"/>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="A99" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="3">
+        <v>44802</v>
+      </c>
+      <c r="E99" s="3">
+        <v>44809</v>
+      </c>
+      <c r="F99" s="3">
+        <v>44866</v>
+      </c>
+      <c r="G99" s="3">
+        <v>44874</v>
+      </c>
+      <c r="H99" s="3">
+        <v>44880</v>
+      </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -6157,14 +6363,30 @@
       <c r="AH99" s="2"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="A100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3">
+        <v>44803</v>
+      </c>
+      <c r="E100" s="3">
+        <v>44808</v>
+      </c>
+      <c r="F100" s="3">
+        <v>44867</v>
+      </c>
+      <c r="G100" s="3">
+        <v>44875</v>
+      </c>
+      <c r="H100" s="3">
+        <v>44881</v>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -6193,14 +6415,30 @@
       <c r="AH100" s="2"/>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="3">
+        <v>44810</v>
+      </c>
+      <c r="E101" s="3">
+        <v>44811</v>
+      </c>
+      <c r="F101" s="3">
+        <v>44868</v>
+      </c>
+      <c r="G101" s="3">
+        <v>44876</v>
+      </c>
+      <c r="H101" s="3">
+        <v>44882</v>
+      </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -6229,14 +6467,30 @@
       <c r="AH101" s="2"/>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="A102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="3">
+        <v>44814</v>
+      </c>
+      <c r="E102" s="3">
+        <v>44815</v>
+      </c>
+      <c r="F102" s="3">
+        <v>44869</v>
+      </c>
+      <c r="G102" s="3">
+        <v>44877</v>
+      </c>
+      <c r="H102" s="3">
+        <v>44883</v>
+      </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -6265,14 +6519,30 @@
       <c r="AH102" s="2"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="A103" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="3">
+        <v>44878</v>
+      </c>
+      <c r="E103" s="3">
+        <v>44885</v>
+      </c>
+      <c r="F103" s="3">
+        <v>44889</v>
+      </c>
+      <c r="G103" s="3">
+        <v>44894</v>
+      </c>
+      <c r="H103" s="3">
+        <v>44993</v>
+      </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -6301,14 +6571,30 @@
       <c r="AH103" s="2"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="A104" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="3">
+        <v>44886</v>
+      </c>
+      <c r="E104" s="3">
+        <v>44887</v>
+      </c>
+      <c r="F104" s="3">
+        <v>44890</v>
+      </c>
+      <c r="G104" s="3">
+        <v>44895</v>
+      </c>
+      <c r="H104" s="3">
+        <v>44995</v>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -6337,12 +6623,24 @@
       <c r="AH104" s="2"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="A105" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3">
+        <v>44893</v>
+      </c>
+      <c r="E105" s="3">
+        <v>44897</v>
+      </c>
+      <c r="F105" s="3">
+        <v>44985</v>
+      </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8200D071-C271-4568-9652-B5755E77DF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80DE6D-0A3E-4925-9363-D2C104C0BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2055" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="238">
   <si>
     <t>Two Sums</t>
   </si>
@@ -725,6 +725,30 @@
   </si>
   <si>
     <t>Try with hasmap and basic</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>push pop</t>
+  </si>
+  <si>
+    <t>Minimum Moves to Spread Stones Over Grid</t>
+  </si>
+  <si>
+    <t>Backtrack, Recursion, brute force</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>pointers</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Remove Dupicates from sorted array</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2486,9 @@
       <c r="I25" s="3">
         <v>45015</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="3">
+        <v>45308</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2567,7 +2593,9 @@
       <c r="H27" s="3">
         <v>44829</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="3">
+        <v>45040</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2619,7 +2647,9 @@
       <c r="H28" s="3">
         <v>44831</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="3">
+        <v>45041</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2727,7 +2757,9 @@
       <c r="H30" s="3">
         <v>44833</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="3">
+        <v>45044</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2779,7 +2811,9 @@
       <c r="H31" s="3">
         <v>44836</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" s="3">
+        <v>45045</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2945,7 +2979,9 @@
       <c r="H34" s="3">
         <v>44838</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="3">
+        <v>45046</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2997,7 +3033,9 @@
       <c r="H35" s="3">
         <v>44839</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="3">
+        <v>45048</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3107,7 +3145,9 @@
       <c r="H37" s="3">
         <v>44840</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="3">
+        <v>45050</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3159,7 +3199,9 @@
       <c r="H38" s="3">
         <v>44687</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" s="3">
+        <v>45051</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -3211,7 +3253,9 @@
       <c r="H39" s="3">
         <v>44841</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" s="3">
+        <v>45055</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -3263,7 +3307,9 @@
       <c r="H40" s="3">
         <v>44842</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="3">
+        <v>45056</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -3315,7 +3361,9 @@
       <c r="H41" s="3">
         <v>44843</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="3">
+        <v>45057</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3367,7 +3415,9 @@
       <c r="H42" s="3">
         <v>44732</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="3">
+        <v>45058</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3419,7 +3469,9 @@
       <c r="H43" s="3">
         <v>44732</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="3">
+        <v>45059</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3527,7 +3579,9 @@
       <c r="H45" s="3">
         <v>44844</v>
       </c>
-      <c r="I45" s="2"/>
+      <c r="I45" s="3">
+        <v>45063</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -3579,7 +3633,9 @@
       <c r="H46" s="3">
         <v>44845</v>
       </c>
-      <c r="I46" s="2"/>
+      <c r="I46" s="3">
+        <v>45064</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -3631,7 +3687,9 @@
       <c r="H47" s="3">
         <v>44846</v>
       </c>
-      <c r="I47" s="2"/>
+      <c r="I47" s="3">
+        <v>45067</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -3683,7 +3741,9 @@
       <c r="H48" s="3">
         <v>44847</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="3">
+        <v>45074</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -3789,7 +3849,9 @@
       <c r="H50" s="3">
         <v>44849</v>
       </c>
-      <c r="I50" s="2"/>
+      <c r="I50" s="3">
+        <v>45082</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3841,7 +3903,9 @@
       <c r="H51" s="3">
         <v>44770</v>
       </c>
-      <c r="I51" s="2"/>
+      <c r="I51" s="3">
+        <v>45083</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -6671,10 +6735,18 @@
       <c r="AH105" s="2"/>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="3">
+        <v>45183</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -6707,10 +6779,18 @@
       <c r="AH106" s="2"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="A107" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3">
+        <v>45296</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -6743,10 +6823,18 @@
       <c r="AH107" s="2"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="A108" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="3">
+        <v>45306</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -6779,10 +6867,18 @@
       <c r="AH108" s="2"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="A109" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="3">
+        <v>45307</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -6815,10 +6911,18 @@
       <c r="AH109" s="2"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="A110" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="3">
+        <v>45309</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80DE6D-0A3E-4925-9363-D2C104C0BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E45A4BC-3528-44DD-B1D4-AD521F041B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="251">
   <si>
     <t>Two Sums</t>
   </si>
@@ -749,6 +749,45 @@
   </si>
   <si>
     <t>Remove Dupicates from sorted array</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from sorted array 2</t>
+  </si>
+  <si>
+    <t>Majority Event</t>
+  </si>
+  <si>
+    <t>iteration, arrays, sorting</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>3 diff methods, pointers, arrays</t>
+  </si>
+  <si>
+    <t>Best Time to Buy or Sell Stock 2</t>
+  </si>
+  <si>
+    <t>one pass</t>
+  </si>
+  <si>
+    <t>Jump game 2</t>
+  </si>
+  <si>
+    <t>Greedy, keep track of furthest jump and end of current jump</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Sorting or Storage</t>
+  </si>
+  <si>
+    <t>gas station</t>
+  </si>
+  <si>
+    <t>curgain totalgain</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2089,9 @@
       <c r="I17" s="3">
         <v>44461</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="3">
+        <v>45315</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2432,7 +2473,9 @@
       <c r="I24" s="3">
         <v>45012</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="3">
+        <v>45318</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3852,7 +3895,9 @@
       <c r="I50" s="3">
         <v>45082</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="3">
+        <v>45320</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -5719,7 +5764,9 @@
       <c r="H86" s="3">
         <v>44646</v>
       </c>
-      <c r="I86" s="2"/>
+      <c r="I86" s="3">
+        <v>45321</v>
+      </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -6399,7 +6446,9 @@
       <c r="H99" s="3">
         <v>44880</v>
       </c>
-      <c r="I99" s="2"/>
+      <c r="I99" s="3">
+        <v>45317</v>
+      </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -6955,10 +7004,18 @@
       <c r="AH110" s="2"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="A111" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="3">
+        <v>45310</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -6991,10 +7048,18 @@
       <c r="AH111" s="2"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="A112" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="3">
+        <v>45311</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -7027,10 +7092,18 @@
       <c r="AH112" s="2"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="A113" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="3">
+        <v>45312</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -7063,10 +7136,18 @@
       <c r="AH113" s="2"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="A114" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="3">
+        <v>45313</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -7099,10 +7180,18 @@
       <c r="AH114" s="2"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="A115" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="3">
+        <v>45315</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -7135,10 +7224,18 @@
       <c r="AH115" s="2"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="A116" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="3">
+        <v>45316</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -7171,10 +7268,18 @@
       <c r="AH116" s="2"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="A117" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="3">
+        <v>45322</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E45A4BC-3528-44DD-B1D4-AD521F041B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9442B4-9B3E-4A37-B7F3-BED73DE5748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="266">
   <si>
     <t>Two Sums</t>
   </si>
@@ -421,9 +421,6 @@
     <t>linkedList Hashset</t>
   </si>
   <si>
-    <t>Incorporate TwoSum, sort</t>
-  </si>
-  <si>
     <t>Copy List with Random Pointer</t>
   </si>
   <si>
@@ -788,6 +785,54 @@
   </si>
   <si>
     <t>curgain totalgain</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>1 array 2 arrays or slope</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>pointer from the back</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>Math, Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Find the index of the first occurrence in a string</t>
+  </si>
+  <si>
+    <t>Sliding window, or list (not the best)</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Break it down step by step. Try to use sub functions</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>2 pointers</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>Incorporate TwoSum, sort. Try not to use 2Sum</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1282,7 +1327,9 @@
       <c r="L2" s="3">
         <v>44456</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="3">
+        <v>45334</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1310,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1441,7 +1488,9 @@
       <c r="I5" s="3">
         <v>44987</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="3">
+        <v>45333</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1634,7 +1683,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2342,7 +2391,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -2562,7 +2611,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
@@ -2780,7 +2829,7 @@
         <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -2834,7 +2883,7 @@
         <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
@@ -3110,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
@@ -3602,7 +3651,7 @@
         <v>106</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
@@ -3872,7 +3921,7 @@
         <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
@@ -3928,7 +3977,7 @@
         <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
@@ -4293,10 +4342,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
@@ -4345,10 +4394,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
@@ -4397,10 +4446,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
@@ -4451,10 +4500,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -4503,10 +4552,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
@@ -4555,10 +4604,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
@@ -4607,10 +4656,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
@@ -4659,10 +4708,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
@@ -4713,10 +4762,10 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -4765,10 +4814,10 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
@@ -4817,10 +4866,10 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
@@ -4869,10 +4918,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
@@ -4921,7 +4970,7 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>126</v>
@@ -4973,10 +5022,10 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>24</v>
@@ -5025,10 +5074,10 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
@@ -5077,10 +5126,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -5117,10 +5166,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
@@ -5169,10 +5218,10 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
@@ -5221,10 +5270,10 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
@@ -5273,10 +5322,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
@@ -5325,10 +5374,10 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
@@ -5377,10 +5426,10 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
@@ -5400,7 +5449,9 @@
       <c r="H79" s="3">
         <v>44642</v>
       </c>
-      <c r="I79" s="2"/>
+      <c r="I79" s="3">
+        <v>45332</v>
+      </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -5429,10 +5480,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
@@ -5481,10 +5532,10 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
@@ -5533,10 +5584,10 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
@@ -5585,10 +5636,10 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
@@ -5637,10 +5688,10 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -5689,10 +5740,10 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
@@ -5741,10 +5792,10 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
@@ -5795,10 +5846,10 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
@@ -5847,10 +5898,10 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
@@ -5870,7 +5921,9 @@
       <c r="H88" s="3">
         <v>44647</v>
       </c>
-      <c r="I88" s="2"/>
+      <c r="I88" s="3">
+        <v>45324</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -5899,10 +5952,10 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
@@ -5951,10 +6004,10 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
@@ -6003,10 +6056,10 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
@@ -6055,13 +6108,13 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D92" s="3">
         <v>44588</v>
@@ -6107,10 +6160,10 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
@@ -6159,10 +6212,10 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
@@ -6211,10 +6264,10 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
@@ -6267,10 +6320,10 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
@@ -6319,10 +6372,10 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
@@ -6371,10 +6424,10 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
@@ -6423,7 +6476,7 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>112</v>
@@ -6477,10 +6530,10 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -6500,7 +6553,9 @@
       <c r="H100" s="3">
         <v>44881</v>
       </c>
-      <c r="I100" s="2"/>
+      <c r="I100" s="3">
+        <v>45326</v>
+      </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -6529,10 +6584,10 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
@@ -6581,10 +6636,10 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
@@ -6633,10 +6688,10 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
@@ -6685,7 +6740,7 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>112</v>
@@ -6737,10 +6792,10 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
@@ -6785,10 +6840,10 @@
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
@@ -6829,10 +6884,10 @@
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
@@ -6873,10 +6928,10 @@
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
@@ -6917,10 +6972,10 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
@@ -6961,10 +7016,10 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
@@ -7005,10 +7060,10 @@
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
@@ -7049,10 +7104,10 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
@@ -7093,10 +7148,10 @@
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
@@ -7137,10 +7192,10 @@
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
@@ -7181,10 +7236,10 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
@@ -7225,10 +7280,10 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
@@ -7269,10 +7324,10 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
@@ -7312,10 +7367,18 @@
       <c r="AH117" s="2"/>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="A118" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="3">
+        <v>45323</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -7348,10 +7411,18 @@
       <c r="AH118" s="2"/>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="3">
+        <v>45325</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -7384,10 +7455,18 @@
       <c r="AH119" s="2"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="3">
+        <v>45327</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -7420,10 +7499,18 @@
       <c r="AH120" s="2"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="A121" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="3">
+        <v>45328</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -7456,10 +7543,18 @@
       <c r="AH121" s="2"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="A122" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="3">
+        <v>45330</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -7492,10 +7587,18 @@
       <c r="AH122" s="2"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="3">
+        <v>45331</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -7528,10 +7631,18 @@
       <c r="AH123" s="2"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="A124" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="3">
+        <v>45332</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -7564,10 +7675,18 @@
       <c r="AH124" s="2"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="A125" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="3">
+        <v>45332</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9442B4-9B3E-4A37-B7F3-BED73DE5748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB397CD1-AE8E-491C-AD83-7896B4E5CA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
+    <workbookView xWindow="5265" yWindow="3150" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="268">
   <si>
     <t>Two Sums</t>
   </si>
@@ -833,6 +833,12 @@
   </si>
   <si>
     <t>Incorporate TwoSum, sort. Try not to use 2Sum</t>
+  </si>
+  <si>
+    <t>Minimize Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Sliding window</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1386,9 @@
       <c r="I3" s="3">
         <v>44456</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="3">
+        <v>45336</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -7719,10 +7727,18 @@
       <c r="AH125" s="2"/>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="A126" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="3">
+        <v>45335</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB397CD1-AE8E-491C-AD83-7896B4E5CA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B7304-8681-4430-81B1-73B7C4BE4C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3150" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="308">
   <si>
     <t>Two Sums</t>
   </si>
@@ -835,10 +836,130 @@
     <t>Incorporate TwoSum, sort. Try not to use 2Sum</t>
   </si>
   <si>
-    <t>Minimize Size Subarray Sum</t>
-  </si>
-  <si>
     <t>Sliding window</t>
+  </si>
+  <si>
+    <t>Substring with concatenation of all words</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Set Matrix 0s</t>
+  </si>
+  <si>
+    <t>Store in rows and cols</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Try to do it O(1)</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>Spiral matrix II</t>
+  </si>
+  <si>
+    <t>Matrix traversal</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>keep track of direction</t>
+  </si>
+  <si>
+    <t>Reshape the Matrix</t>
+  </si>
+  <si>
+    <t>iterate through</t>
+  </si>
+  <si>
+    <t>Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t>diagonal</t>
+  </si>
+  <si>
+    <t>Image Overlap</t>
+  </si>
+  <si>
+    <t>Look at 4 cases at once</t>
+  </si>
+  <si>
+    <t>Transpose Matrix</t>
+  </si>
+  <si>
+    <t>brute force</t>
+  </si>
+  <si>
+    <t>4sum II</t>
+  </si>
+  <si>
+    <t>same approach as 2sum</t>
+  </si>
+  <si>
+    <t>Longest palindrome by concatinating 2 letter words</t>
+  </si>
+  <si>
+    <t>similar to 2sum</t>
+  </si>
+  <si>
+    <t>Array of Doubled Pairs</t>
+  </si>
+  <si>
+    <t>3Sum With Multiplicity</t>
+  </si>
+  <si>
+    <t>Split it into cases. Use Combination</t>
+  </si>
+  <si>
+    <t>Count Number of Nice Subarrays</t>
+  </si>
+  <si>
+    <t>two pointers</t>
+  </si>
+  <si>
+    <t>K-diff Pairs in an Array</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Contains duplicate II</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>fix left bound</t>
+  </si>
+  <si>
+    <t>Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>sort + intervals</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>2stacks</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1391,9 @@
       <c r="I1" s="3">
         <v>44667</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="3">
+        <v>45344</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1336,7 +1459,9 @@
       <c r="M2" s="3">
         <v>45334</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="3">
+        <v>45357</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1606,7 +1731,9 @@
       <c r="I7" s="3">
         <v>44989</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3">
+        <v>45364</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1930,7 +2057,9 @@
       <c r="I13" s="3">
         <v>45001</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="3">
+        <v>45362</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1984,9 +2113,15 @@
       <c r="I14" s="3">
         <v>44999</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="3">
+        <v>45341</v>
+      </c>
+      <c r="K14" s="3">
+        <v>45346</v>
+      </c>
+      <c r="L14" s="3">
+        <v>45356</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2316,7 +2451,9 @@
       <c r="K20" s="3">
         <v>44463</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="3">
+        <v>45363</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2422,7 +2559,9 @@
       <c r="I22" s="3">
         <v>45008</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="3">
+        <v>45364</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -4163,7 +4302,9 @@
       <c r="H54" s="3">
         <v>44852</v>
       </c>
-      <c r="I54" s="2"/>
+      <c r="I54" s="3">
+        <v>45344</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -4845,9 +4986,15 @@
       <c r="H67" s="3">
         <v>44508</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="I67" s="3">
+        <v>45340</v>
+      </c>
+      <c r="J67" s="3">
+        <v>45346</v>
+      </c>
+      <c r="K67" s="3">
+        <v>45356</v>
+      </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -5353,9 +5500,15 @@
       <c r="H77" s="3">
         <v>44786</v>
       </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="I77" s="3">
+        <v>45352</v>
+      </c>
+      <c r="J77" s="3">
+        <v>45356</v>
+      </c>
+      <c r="K77" s="3">
+        <v>45363</v>
+      </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -6087,7 +6240,9 @@
       <c r="H91" s="3">
         <v>44651</v>
       </c>
-      <c r="I91" s="2"/>
+      <c r="I91" s="3">
+        <v>45364</v>
+      </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -6771,8 +6926,12 @@
       <c r="H104" s="3">
         <v>44995</v>
       </c>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="I104" s="3">
+        <v>45354</v>
+      </c>
+      <c r="J104" s="3">
+        <v>45356</v>
+      </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -7607,8 +7766,12 @@
       <c r="D123" s="3">
         <v>45331</v>
       </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="E123" s="3">
+        <v>45349</v>
+      </c>
+      <c r="F123" s="3">
+        <v>45356</v>
+      </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -7728,10 +7891,10 @@
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
@@ -7771,10 +7934,18 @@
       <c r="AH126" s="2"/>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="A127" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="3">
+        <v>45337</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -7807,10 +7978,18 @@
       <c r="AH127" s="2"/>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="A128" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="3">
+        <v>45338</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -7843,10 +8022,18 @@
       <c r="AH128" s="2"/>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="A129" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="3">
+        <v>45339</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -7879,10 +8066,18 @@
       <c r="AH129" s="2"/>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="A130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="3">
+        <v>45342</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -7915,10 +8110,18 @@
       <c r="AH130" s="2"/>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="A131" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="3">
+        <v>45343</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -7951,10 +8154,18 @@
       <c r="AH131" s="2"/>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="A132" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="3">
+        <v>45344</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -7987,10 +8198,18 @@
       <c r="AH132" s="2"/>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="A133" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="3">
+        <v>45344</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -8023,10 +8242,18 @@
       <c r="AH133" s="2"/>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="A134" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="3">
+        <v>45344</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -8059,11 +8286,21 @@
       <c r="AH134" s="2"/>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="A135" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="3">
+        <v>45346</v>
+      </c>
+      <c r="E135" s="3">
+        <v>45356</v>
+      </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
@@ -8095,11 +8332,21 @@
       <c r="AH135" s="2"/>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="A136" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="3">
+        <v>45347</v>
+      </c>
+      <c r="E136" s="3">
+        <v>45356</v>
+      </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
@@ -8131,11 +8378,21 @@
       <c r="AH136" s="2"/>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="3">
+        <v>45349</v>
+      </c>
+      <c r="E137" s="3">
+        <v>45356</v>
+      </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -8167,11 +8424,21 @@
       <c r="AH137" s="2"/>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="3">
+        <v>45349</v>
+      </c>
+      <c r="E138" s="3">
+        <v>45356</v>
+      </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -8203,11 +8470,21 @@
       <c r="AH138" s="2"/>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="3">
+        <v>45349</v>
+      </c>
+      <c r="E139" s="3">
+        <v>45357</v>
+      </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -8239,11 +8516,21 @@
       <c r="AH139" s="2"/>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="A140" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="3">
+        <v>45349</v>
+      </c>
+      <c r="E140" s="3">
+        <v>45356</v>
+      </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -8275,11 +8562,21 @@
       <c r="AH140" s="2"/>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="3">
+        <v>45355</v>
+      </c>
+      <c r="E141" s="3">
+        <v>45356</v>
+      </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -8311,11 +8608,21 @@
       <c r="AH141" s="2"/>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="3">
+        <v>45355</v>
+      </c>
+      <c r="E142" s="3">
+        <v>45356</v>
+      </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -8347,11 +8654,21 @@
       <c r="AH142" s="2"/>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="3">
+        <v>45355</v>
+      </c>
+      <c r="E143" s="3">
+        <v>45356</v>
+      </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -8383,11 +8700,21 @@
       <c r="AH143" s="2"/>
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="3">
+        <v>45355</v>
+      </c>
+      <c r="E144" s="3">
+        <v>45356</v>
+      </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -8419,11 +8746,21 @@
       <c r="AH144" s="2"/>
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="3">
+        <v>45355</v>
+      </c>
+      <c r="E145" s="3">
+        <v>45357</v>
+      </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
@@ -8455,11 +8792,21 @@
       <c r="AH145" s="2"/>
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+      <c r="A146" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="3">
+        <v>45356</v>
+      </c>
+      <c r="E146" s="3">
+        <v>45357</v>
+      </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -8491,10 +8838,18 @@
       <c r="AH146" s="2"/>
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="A147" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="3">
+        <v>45362</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -8527,10 +8882,18 @@
       <c r="AH147" s="2"/>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="A148" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="3">
+        <v>45362</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -8563,10 +8926,18 @@
       <c r="AH148" s="2"/>
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="A149" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="3">
+        <v>45363</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -8599,10 +8970,18 @@
       <c r="AH149" s="2"/>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="A150" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="3">
+        <v>45364</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -8635,10 +9014,18 @@
       <c r="AH150" s="2"/>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="A151" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="3">
+        <v>45365</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B7304-8681-4430-81B1-73B7C4BE4C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD03CB6-15AD-4EFC-A489-7FCE7532D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="23010" windowHeight="12450" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="357">
   <si>
     <t>Two Sums</t>
   </si>
@@ -960,6 +959,153 @@
   </si>
   <si>
     <t>2stacks</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>linked list</t>
+  </si>
+  <si>
+    <t>Reverse LinkedList II</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>coin change</t>
+  </si>
+  <si>
+    <t>Merge In Between Linked Lists</t>
+  </si>
+  <si>
+    <t>Three Equal Parts</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Partition List</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>backtrack with Trie</t>
+  </si>
+  <si>
+    <t>Split Message Based on Limit</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>dynamic programming Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>Maximum Sum Circular Subarray</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Search a 2D matrix</t>
+  </si>
+  <si>
+    <t>Candy Crush</t>
+  </si>
+  <si>
+    <t>Count Primes</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Dynamic or Trie</t>
+  </si>
+  <si>
+    <t>Longest increasing subsequence</t>
+  </si>
+  <si>
+    <t>Find first and last position of element in sorted array</t>
+  </si>
+  <si>
+    <t>Surounded Regions</t>
+  </si>
+  <si>
+    <t>2D map traversal</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Two Sum Less Than K</t>
+  </si>
+  <si>
+    <t>two pointer</t>
+  </si>
+  <si>
+    <t>Rotating the box</t>
+  </si>
+  <si>
+    <t>2D matrix</t>
+  </si>
+  <si>
+    <t>Count alternating subarrays</t>
+  </si>
+  <si>
+    <t>counting problem</t>
+  </si>
+  <si>
+    <t>Meeting Scheduler</t>
+  </si>
+  <si>
+    <t>arrays</t>
+  </si>
+  <si>
+    <t>Get Biggest Three Rhombus Sums in a Grid</t>
+  </si>
+  <si>
+    <t>Four Divisors</t>
   </si>
 </sst>
 </file>
@@ -1353,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1660,9 @@
       <c r="J3" s="3">
         <v>45336</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3">
+        <v>45392</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1677,7 +1825,9 @@
       <c r="I6" s="3">
         <v>44988</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="3">
+        <v>45371</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1787,7 +1937,9 @@
       <c r="I8" s="3">
         <v>44991</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="3">
+        <v>45369</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1872,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1895,7 +2047,9 @@
       <c r="I10" s="3">
         <v>44992</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="3">
+        <v>45380</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2173,7 +2327,9 @@
       <c r="I15" s="3">
         <v>45003</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="3">
+        <v>45375</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2284,7 +2440,9 @@
       <c r="J17" s="3">
         <v>45315</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="3">
+        <v>45391</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2337,8 +2495,12 @@
       <c r="I18" s="3">
         <v>45004</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="3">
+        <v>45372</v>
+      </c>
+      <c r="K18" s="3">
+        <v>45384</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2391,7 +2553,9 @@
       <c r="I19" s="3">
         <v>45005</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="3">
+        <v>45375</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2454,7 +2618,9 @@
       <c r="L20" s="3">
         <v>45363</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="3">
+        <v>45380</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -2672,7 +2838,9 @@
       <c r="J24" s="3">
         <v>45318</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="3">
+        <v>45392</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2889,7 +3057,9 @@
       <c r="I28" s="3">
         <v>45041</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="3">
+        <v>45369</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2946,7 +3116,9 @@
       <c r="J29" s="3">
         <v>44467</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="3">
+        <v>45386</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2999,7 +3171,9 @@
       <c r="I30" s="3">
         <v>45044</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="3">
+        <v>45379</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3335,7 +3509,9 @@
       <c r="K36" s="3">
         <v>44668</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="3">
+        <v>45374</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4250,7 +4426,9 @@
       <c r="H53" s="3">
         <v>44851</v>
       </c>
-      <c r="I53" s="2"/>
+      <c r="I53" s="3">
+        <v>45375</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -4514,7 +4692,9 @@
       <c r="H58" s="3">
         <v>44502</v>
       </c>
-      <c r="I58" s="2"/>
+      <c r="I58" s="3">
+        <v>45369</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -6243,7 +6423,9 @@
       <c r="I91" s="3">
         <v>45364</v>
       </c>
-      <c r="J91" s="2"/>
+      <c r="J91" s="3">
+        <v>45392</v>
+      </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -7238,7 +7420,9 @@
       <c r="D111" s="3">
         <v>45310</v>
       </c>
-      <c r="E111" s="2"/>
+      <c r="E111" s="3">
+        <v>45390</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -7326,7 +7510,9 @@
       <c r="D113" s="3">
         <v>45312</v>
       </c>
-      <c r="E113" s="2"/>
+      <c r="E113" s="3">
+        <v>45390</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -7370,7 +7556,9 @@
       <c r="D114" s="3">
         <v>45313</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="3">
+        <v>45391</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -7458,7 +7646,9 @@
       <c r="D116" s="3">
         <v>45316</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="3">
+        <v>45386</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -9058,10 +9248,18 @@
       <c r="AH151" s="2"/>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="A152" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="3">
+        <v>45366</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -9094,11 +9292,21 @@
       <c r="AH152" s="2"/>
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
+      <c r="A153" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="3">
+        <v>45366</v>
+      </c>
+      <c r="E153" s="3">
+        <v>45367</v>
+      </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -9130,10 +9338,18 @@
       <c r="AH153" s="2"/>
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="A154" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="3">
+        <v>45368</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -9166,10 +9382,18 @@
       <c r="AH154" s="2"/>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="A155" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="3">
+        <v>45370</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -9202,10 +9426,18 @@
       <c r="AH155" s="2"/>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="A156" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="3">
+        <v>45371</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -9238,10 +9470,18 @@
       <c r="AH156" s="2"/>
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="A157" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="3">
+        <v>45371</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -9274,11 +9514,21 @@
       <c r="AH157" s="2"/>
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="3">
+        <v>45372</v>
+      </c>
+      <c r="E158" s="3">
+        <v>45384</v>
+      </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
@@ -9310,10 +9560,18 @@
       <c r="AH158" s="2"/>
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="A159" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="3">
+        <v>45372</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -9346,10 +9604,18 @@
       <c r="AH159" s="2"/>
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="A160" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="3">
+        <v>45373</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -9382,10 +9648,18 @@
       <c r="AH160" s="2"/>
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="A161" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="3">
+        <v>45373</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -9418,10 +9692,18 @@
       <c r="AH161" s="2"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="A162" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="3">
+        <v>45373</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -9454,10 +9736,18 @@
       <c r="AH162" s="2"/>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="A163" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="3">
+        <v>45374</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -9490,10 +9780,18 @@
       <c r="AH163" s="2"/>
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="A164" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="3">
+        <v>45376</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -9526,10 +9824,18 @@
       <c r="AH164" s="2"/>
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="A165" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="3">
+        <v>45376</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -9562,10 +9868,18 @@
       <c r="AH165" s="2"/>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="A166" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="3">
+        <v>45377</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -9598,10 +9912,18 @@
       <c r="AH166" s="2"/>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="A167" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="3">
+        <v>45379</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -9634,10 +9956,18 @@
       <c r="AH167" s="2"/>
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="A168" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" s="3">
+        <v>45380</v>
+      </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -9670,10 +10000,18 @@
       <c r="AH168" s="2"/>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="A169" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="3">
+        <v>45380</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -9706,10 +10044,18 @@
       <c r="AH169" s="2"/>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
+      <c r="A170" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="3">
+        <v>45380</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -9742,10 +10088,18 @@
       <c r="AH170" s="2"/>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="A171" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="3">
+        <v>45381</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -9778,11 +10132,21 @@
       <c r="AH171" s="2"/>
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="A172" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="3">
+        <v>45382</v>
+      </c>
+      <c r="E172" s="3">
+        <v>45392</v>
+      </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -9814,10 +10178,18 @@
       <c r="AH172" s="2"/>
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="A173" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="3">
+        <v>45382</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -9850,11 +10222,21 @@
       <c r="AH173" s="2"/>
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
+      <c r="A174" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="3">
+        <v>45383</v>
+      </c>
+      <c r="E174" s="3">
+        <v>45384</v>
+      </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -9886,10 +10268,18 @@
       <c r="AH174" s="2"/>
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="3">
+        <v>45384</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -9922,10 +10312,18 @@
       <c r="AH175" s="2"/>
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+      <c r="A176" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="3">
+        <v>45385</v>
+      </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -9958,10 +10356,18 @@
       <c r="AH176" s="2"/>
     </row>
     <row r="177" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
+      <c r="A177" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="3">
+        <v>45385</v>
+      </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -9994,10 +10400,18 @@
       <c r="AH177" s="2"/>
     </row>
     <row r="178" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
+      <c r="A178" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="3">
+        <v>45386</v>
+      </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -10030,10 +10444,18 @@
       <c r="AH178" s="2"/>
     </row>
     <row r="179" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="A179" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="3">
+        <v>45387</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -10066,10 +10488,18 @@
       <c r="AH179" s="2"/>
     </row>
     <row r="180" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="A180" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="3">
+        <v>45392</v>
+      </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -10102,10 +10532,18 @@
       <c r="AH180" s="2"/>
     </row>
     <row r="181" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="A181" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="3">
+        <v>45392</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -10138,10 +10576,18 @@
       <c r="AH181" s="2"/>
     </row>
     <row r="182" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="A182" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="3">
+        <v>45392</v>
+      </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -10174,10 +10620,18 @@
       <c r="AH182" s="2"/>
     </row>
     <row r="183" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="A183" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="3">
+        <v>45392</v>
+      </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -10210,10 +10664,18 @@
       <c r="AH183" s="2"/>
     </row>
     <row r="184" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="A184" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="3">
+        <v>45392</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -10246,10 +10708,18 @@
       <c r="AH184" s="2"/>
     </row>
     <row r="185" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="A185" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="3">
+        <v>45392</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -10282,10 +10752,18 @@
       <c r="AH185" s="2"/>
     </row>
     <row r="186" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
+      <c r="A186" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="3">
+        <v>45392</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acyang/Desktop/Study/Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD03CB6-15AD-4EFC-A489-7FCE7532D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E279DF-1BCE-5D48-94F3-7C07C09BD555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{61430976-EAB8-004C-8B16-394219E31DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="361">
   <si>
     <t>Two Sums</t>
   </si>
@@ -1106,6 +1106,18 @@
   </si>
   <si>
     <t>Four Divisors</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers</t>
   </si>
 </sst>
 </file>
@@ -1201,9 +1213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1241,7 +1253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1347,7 +1359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1489,7 +1501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1499,17 +1511,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C3D67-DEA6-634C-A558-53E2F0287E83}">
   <dimension ref="A1:AH302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1577,7 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1641,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +1699,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1753,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1797,7 +1809,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1853,7 +1865,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1921,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1977,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2019,7 +2031,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2075,7 +2087,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2129,7 +2141,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -2183,7 +2195,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -2239,7 +2251,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2299,7 +2311,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -2355,7 +2367,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2409,7 +2421,7 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -2467,7 +2479,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2525,7 +2537,7 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -2581,7 +2593,7 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>81</v>
       </c>
@@ -2643,7 +2655,7 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -2697,7 +2709,7 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -2753,7 +2765,7 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -2807,7 +2819,7 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -2865,7 +2877,7 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -2921,7 +2933,7 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -2975,7 +2987,7 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -3029,7 +3041,7 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -3085,7 +3097,7 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
@@ -3143,7 +3155,7 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -3199,7 +3211,7 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -3253,7 +3265,7 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -3309,7 +3321,7 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>88</v>
       </c>
@@ -3367,7 +3379,7 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>90</v>
       </c>
@@ -3421,7 +3433,7 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -3475,7 +3487,7 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -3535,7 +3547,7 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -3589,7 +3601,7 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>95</v>
       </c>
@@ -3643,7 +3655,7 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>97</v>
       </c>
@@ -3697,7 +3709,7 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
@@ -3751,7 +3763,7 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
@@ -3805,7 +3817,7 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>101</v>
       </c>
@@ -3859,7 +3871,7 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
@@ -3913,7 +3925,7 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
@@ -3969,7 +3981,7 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>106</v>
       </c>
@@ -4023,7 +4035,7 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>107</v>
       </c>
@@ -4077,7 +4089,7 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>109</v>
       </c>
@@ -4131,7 +4143,7 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -4185,7 +4197,7 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>113</v>
       </c>
@@ -4239,7 +4251,7 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -4295,7 +4307,7 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
@@ -4349,7 +4361,7 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>117</v>
       </c>
@@ -4401,7 +4413,7 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>119</v>
       </c>
@@ -4455,7 +4467,7 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>120</v>
       </c>
@@ -4509,7 +4521,7 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
@@ -4561,7 +4573,7 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -4613,7 +4625,7 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
@@ -4667,7 +4679,7 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
@@ -4721,7 +4733,7 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>157</v>
       </c>
@@ -4773,7 +4785,7 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>131</v>
       </c>
@@ -4827,7 +4839,7 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>133</v>
       </c>
@@ -4879,7 +4891,7 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>135</v>
       </c>
@@ -4931,7 +4943,7 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
@@ -4983,7 +4995,7 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>139</v>
       </c>
@@ -5035,7 +5047,7 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>141</v>
       </c>
@@ -5089,7 +5101,7 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>143</v>
       </c>
@@ -5141,7 +5153,7 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>145</v>
       </c>
@@ -5199,7 +5211,7 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>222</v>
       </c>
@@ -5251,7 +5263,7 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>148</v>
       </c>
@@ -5303,7 +5315,7 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>150</v>
       </c>
@@ -5355,7 +5367,7 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>151</v>
       </c>
@@ -5407,7 +5419,7 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>153</v>
       </c>
@@ -5459,7 +5471,7 @@
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>155</v>
       </c>
@@ -5499,7 +5511,7 @@
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>158</v>
       </c>
@@ -5551,7 +5563,7 @@
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>160</v>
       </c>
@@ -5603,7 +5615,7 @@
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>161</v>
       </c>
@@ -5655,7 +5667,7 @@
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>162</v>
       </c>
@@ -5713,7 +5725,7 @@
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>164</v>
       </c>
@@ -5765,7 +5777,7 @@
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>166</v>
       </c>
@@ -5819,7 +5831,7 @@
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>168</v>
       </c>
@@ -5871,7 +5883,7 @@
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>169</v>
       </c>
@@ -5923,7 +5935,7 @@
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>172</v>
       </c>
@@ -5975,7 +5987,7 @@
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>174</v>
       </c>
@@ -6027,7 +6039,7 @@
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>176</v>
       </c>
@@ -6079,7 +6091,7 @@
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>178</v>
       </c>
@@ -6131,7 +6143,7 @@
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>180</v>
       </c>
@@ -6185,7 +6197,7 @@
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>182</v>
       </c>
@@ -6237,7 +6249,7 @@
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>186</v>
       </c>
@@ -6291,7 +6303,7 @@
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>192</v>
       </c>
@@ -6343,7 +6355,7 @@
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>193</v>
       </c>
@@ -6395,7 +6407,7 @@
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>195</v>
       </c>
@@ -6451,7 +6463,7 @@
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>196</v>
       </c>
@@ -6503,7 +6515,7 @@
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>199</v>
       </c>
@@ -6555,7 +6567,7 @@
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>201</v>
       </c>
@@ -6607,7 +6619,7 @@
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>204</v>
       </c>
@@ -6663,7 +6675,7 @@
       <c r="AG95" s="2"/>
       <c r="AH95" s="2"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>205</v>
       </c>
@@ -6715,7 +6727,7 @@
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>207</v>
       </c>
@@ -6767,7 +6779,7 @@
       <c r="AG97" s="2"/>
       <c r="AH97" s="2"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>213</v>
       </c>
@@ -6819,7 +6831,7 @@
       <c r="AG98" s="2"/>
       <c r="AH98" s="2"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>215</v>
       </c>
@@ -6873,7 +6885,7 @@
       <c r="AG99" s="2"/>
       <c r="AH99" s="2"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>216</v>
       </c>
@@ -6927,7 +6939,7 @@
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>218</v>
       </c>
@@ -6979,7 +6991,7 @@
       <c r="AG101" s="2"/>
       <c r="AH101" s="2"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>220</v>
       </c>
@@ -7031,7 +7043,7 @@
       <c r="AG102" s="2"/>
       <c r="AH102" s="2"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>224</v>
       </c>
@@ -7083,7 +7095,7 @@
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>226</v>
       </c>
@@ -7139,7 +7151,7 @@
       <c r="AG104" s="2"/>
       <c r="AH104" s="2"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>227</v>
       </c>
@@ -7187,7 +7199,7 @@
       <c r="AG105" s="2"/>
       <c r="AH105" s="2"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>229</v>
       </c>
@@ -7231,7 +7243,7 @@
       <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>231</v>
       </c>
@@ -7275,7 +7287,7 @@
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>233</v>
       </c>
@@ -7319,7 +7331,7 @@
       <c r="AG108" s="2"/>
       <c r="AH108" s="2"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>235</v>
       </c>
@@ -7363,7 +7375,7 @@
       <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>236</v>
       </c>
@@ -7407,7 +7419,7 @@
       <c r="AG110" s="2"/>
       <c r="AH110" s="2"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>237</v>
       </c>
@@ -7423,7 +7435,9 @@
       <c r="E111" s="3">
         <v>45390</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="3">
+        <v>45413</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -7453,7 +7467,7 @@
       <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>238</v>
       </c>
@@ -7497,7 +7511,7 @@
       <c r="AG112" s="2"/>
       <c r="AH112" s="2"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>240</v>
       </c>
@@ -7543,7 +7557,7 @@
       <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>242</v>
       </c>
@@ -7589,7 +7603,7 @@
       <c r="AG114" s="2"/>
       <c r="AH114" s="2"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>244</v>
       </c>
@@ -7633,7 +7647,7 @@
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>246</v>
       </c>
@@ -7679,7 +7693,7 @@
       <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>248</v>
       </c>
@@ -7723,7 +7737,7 @@
       <c r="AG117" s="2"/>
       <c r="AH117" s="2"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>250</v>
       </c>
@@ -7767,7 +7781,7 @@
       <c r="AG118" s="2"/>
       <c r="AH118" s="2"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>252</v>
       </c>
@@ -7811,7 +7825,7 @@
       <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>254</v>
       </c>
@@ -7855,7 +7869,7 @@
       <c r="AG120" s="2"/>
       <c r="AH120" s="2"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>256</v>
       </c>
@@ -7899,7 +7913,7 @@
       <c r="AG121" s="2"/>
       <c r="AH121" s="2"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>258</v>
       </c>
@@ -7943,7 +7957,7 @@
       <c r="AG122" s="2"/>
       <c r="AH122" s="2"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>260</v>
       </c>
@@ -7991,7 +8005,7 @@
       <c r="AG123" s="2"/>
       <c r="AH123" s="2"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>262</v>
       </c>
@@ -8035,7 +8049,7 @@
       <c r="AG124" s="2"/>
       <c r="AH124" s="2"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>264</v>
       </c>
@@ -8079,7 +8093,7 @@
       <c r="AG125" s="2"/>
       <c r="AH125" s="2"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>268</v>
       </c>
@@ -8123,7 +8137,7 @@
       <c r="AG126" s="2"/>
       <c r="AH126" s="2"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>267</v>
       </c>
@@ -8167,7 +8181,7 @@
       <c r="AG127" s="2"/>
       <c r="AH127" s="2"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>269</v>
       </c>
@@ -8211,7 +8225,7 @@
       <c r="AG128" s="2"/>
       <c r="AH128" s="2"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>270</v>
       </c>
@@ -8255,7 +8269,7 @@
       <c r="AG129" s="2"/>
       <c r="AH129" s="2"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>271</v>
       </c>
@@ -8299,7 +8313,7 @@
       <c r="AG130" s="2"/>
       <c r="AH130" s="2"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>273</v>
       </c>
@@ -8343,7 +8357,7 @@
       <c r="AG131" s="2"/>
       <c r="AH131" s="2"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>275</v>
       </c>
@@ -8387,7 +8401,7 @@
       <c r="AG132" s="2"/>
       <c r="AH132" s="2"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>276</v>
       </c>
@@ -8431,7 +8445,7 @@
       <c r="AG133" s="2"/>
       <c r="AH133" s="2"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>277</v>
       </c>
@@ -8475,7 +8489,7 @@
       <c r="AG134" s="2"/>
       <c r="AH134" s="2"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>278</v>
       </c>
@@ -8521,7 +8535,7 @@
       <c r="AG135" s="2"/>
       <c r="AH135" s="2"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>280</v>
       </c>
@@ -8567,7 +8581,7 @@
       <c r="AG136" s="2"/>
       <c r="AH136" s="2"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>282</v>
       </c>
@@ -8613,7 +8627,7 @@
       <c r="AG137" s="2"/>
       <c r="AH137" s="2"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>284</v>
       </c>
@@ -8659,7 +8673,7 @@
       <c r="AG138" s="2"/>
       <c r="AH138" s="2"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>286</v>
       </c>
@@ -8705,7 +8719,7 @@
       <c r="AG139" s="2"/>
       <c r="AH139" s="2"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>288</v>
       </c>
@@ -8751,7 +8765,7 @@
       <c r="AG140" s="2"/>
       <c r="AH140" s="2"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>290</v>
       </c>
@@ -8797,7 +8811,7 @@
       <c r="AG141" s="2"/>
       <c r="AH141" s="2"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>292</v>
       </c>
@@ -8843,7 +8857,7 @@
       <c r="AG142" s="2"/>
       <c r="AH142" s="2"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>294</v>
       </c>
@@ -8889,7 +8903,7 @@
       <c r="AG143" s="2"/>
       <c r="AH143" s="2"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>295</v>
       </c>
@@ -8935,7 +8949,7 @@
       <c r="AG144" s="2"/>
       <c r="AH144" s="2"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>297</v>
       </c>
@@ -8981,7 +8995,7 @@
       <c r="AG145" s="2"/>
       <c r="AH145" s="2"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>299</v>
       </c>
@@ -9027,7 +9041,7 @@
       <c r="AG146" s="2"/>
       <c r="AH146" s="2"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>300</v>
       </c>
@@ -9071,7 +9085,7 @@
       <c r="AG147" s="2"/>
       <c r="AH147" s="2"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>301</v>
       </c>
@@ -9115,7 +9129,7 @@
       <c r="AG148" s="2"/>
       <c r="AH148" s="2"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>302</v>
       </c>
@@ -9159,7 +9173,7 @@
       <c r="AG149" s="2"/>
       <c r="AH149" s="2"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>304</v>
       </c>
@@ -9203,7 +9217,7 @@
       <c r="AG150" s="2"/>
       <c r="AH150" s="2"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>306</v>
       </c>
@@ -9247,7 +9261,7 @@
       <c r="AG151" s="2"/>
       <c r="AH151" s="2"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>308</v>
       </c>
@@ -9291,7 +9305,7 @@
       <c r="AG152" s="2"/>
       <c r="AH152" s="2"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>309</v>
       </c>
@@ -9337,7 +9351,7 @@
       <c r="AG153" s="2"/>
       <c r="AH153" s="2"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>310</v>
       </c>
@@ -9381,7 +9395,7 @@
       <c r="AG154" s="2"/>
       <c r="AH154" s="2"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>312</v>
       </c>
@@ -9425,7 +9439,7 @@
       <c r="AG155" s="2"/>
       <c r="AH155" s="2"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>313</v>
       </c>
@@ -9469,7 +9483,7 @@
       <c r="AG156" s="2"/>
       <c r="AH156" s="2"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>314</v>
       </c>
@@ -9513,7 +9527,7 @@
       <c r="AG157" s="2"/>
       <c r="AH157" s="2"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>315</v>
       </c>
@@ -9559,7 +9573,7 @@
       <c r="AG158" s="2"/>
       <c r="AH158" s="2"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>316</v>
       </c>
@@ -9603,7 +9617,7 @@
       <c r="AG159" s="2"/>
       <c r="AH159" s="2"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>317</v>
       </c>
@@ -9647,7 +9661,7 @@
       <c r="AG160" s="2"/>
       <c r="AH160" s="2"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>319</v>
       </c>
@@ -9691,7 +9705,7 @@
       <c r="AG161" s="2"/>
       <c r="AH161" s="2"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>320</v>
       </c>
@@ -9735,7 +9749,7 @@
       <c r="AG162" s="2"/>
       <c r="AH162" s="2"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>321</v>
       </c>
@@ -9779,7 +9793,7 @@
       <c r="AG163" s="2"/>
       <c r="AH163" s="2"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>322</v>
       </c>
@@ -9823,7 +9837,7 @@
       <c r="AG164" s="2"/>
       <c r="AH164" s="2"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>324</v>
       </c>
@@ -9867,7 +9881,7 @@
       <c r="AG165" s="2"/>
       <c r="AH165" s="2"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>325</v>
       </c>
@@ -9911,7 +9925,7 @@
       <c r="AG166" s="2"/>
       <c r="AH166" s="2"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>326</v>
       </c>
@@ -9955,7 +9969,7 @@
       <c r="AG167" s="2"/>
       <c r="AH167" s="2"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>328</v>
       </c>
@@ -9999,7 +10013,7 @@
       <c r="AG168" s="2"/>
       <c r="AH168" s="2"/>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>331</v>
       </c>
@@ -10043,7 +10057,7 @@
       <c r="AG169" s="2"/>
       <c r="AH169" s="2"/>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>332</v>
       </c>
@@ -10087,7 +10101,7 @@
       <c r="AG170" s="2"/>
       <c r="AH170" s="2"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>333</v>
       </c>
@@ -10131,7 +10145,7 @@
       <c r="AG171" s="2"/>
       <c r="AH171" s="2"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>334</v>
       </c>
@@ -10177,7 +10191,7 @@
       <c r="AG172" s="2"/>
       <c r="AH172" s="2"/>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>335</v>
       </c>
@@ -10221,7 +10235,7 @@
       <c r="AG173" s="2"/>
       <c r="AH173" s="2"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>337</v>
       </c>
@@ -10267,7 +10281,7 @@
       <c r="AG174" s="2"/>
       <c r="AH174" s="2"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>338</v>
       </c>
@@ -10311,7 +10325,7 @@
       <c r="AG175" s="2"/>
       <c r="AH175" s="2"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>340</v>
       </c>
@@ -10355,7 +10369,7 @@
       <c r="AG176" s="2"/>
       <c r="AH176" s="2"/>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>341</v>
       </c>
@@ -10399,7 +10413,7 @@
       <c r="AG177" s="2"/>
       <c r="AH177" s="2"/>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>342</v>
       </c>
@@ -10443,7 +10457,7 @@
       <c r="AG178" s="2"/>
       <c r="AH178" s="2"/>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>344</v>
       </c>
@@ -10487,7 +10501,7 @@
       <c r="AG179" s="2"/>
       <c r="AH179" s="2"/>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>346</v>
       </c>
@@ -10531,7 +10545,7 @@
       <c r="AG180" s="2"/>
       <c r="AH180" s="2"/>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>347</v>
       </c>
@@ -10575,7 +10589,7 @@
       <c r="AG181" s="2"/>
       <c r="AH181" s="2"/>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>349</v>
       </c>
@@ -10619,7 +10633,7 @@
       <c r="AG182" s="2"/>
       <c r="AH182" s="2"/>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>351</v>
       </c>
@@ -10663,7 +10677,7 @@
       <c r="AG183" s="2"/>
       <c r="AH183" s="2"/>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>353</v>
       </c>
@@ -10707,7 +10721,7 @@
       <c r="AG184" s="2"/>
       <c r="AH184" s="2"/>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>355</v>
       </c>
@@ -10751,7 +10765,7 @@
       <c r="AG185" s="2"/>
       <c r="AH185" s="2"/>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>356</v>
       </c>
@@ -10795,12 +10809,22 @@
       <c r="AG186" s="2"/>
       <c r="AH186" s="2"/>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
+    <row r="187" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="3">
+        <v>45413</v>
+      </c>
+      <c r="E187" s="3">
+        <v>45415</v>
+      </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
@@ -10831,12 +10855,22 @@
       <c r="AG187" s="2"/>
       <c r="AH187" s="2"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
+    <row r="188" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="3">
+        <v>45414</v>
+      </c>
+      <c r="E188" s="3">
+        <v>45415</v>
+      </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
@@ -10867,11 +10901,19 @@
       <c r="AG188" s="2"/>
       <c r="AH188" s="2"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+    <row r="189" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D189" s="3">
+        <v>45415</v>
+      </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -10903,11 +10945,19 @@
       <c r="AG189" s="2"/>
       <c r="AH189" s="2"/>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+    <row r="190" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="3">
+        <v>45416</v>
+      </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -10939,7 +10989,7 @@
       <c r="AG190" s="2"/>
       <c r="AH190" s="2"/>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10975,7 +11025,7 @@
       <c r="AG191" s="2"/>
       <c r="AH191" s="2"/>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -11011,7 +11061,7 @@
       <c r="AG192" s="2"/>
       <c r="AH192" s="2"/>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -11047,7 +11097,7 @@
       <c r="AG193" s="2"/>
       <c r="AH193" s="2"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -11083,7 +11133,7 @@
       <c r="AG194" s="2"/>
       <c r="AH194" s="2"/>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -11119,7 +11169,7 @@
       <c r="AG195" s="2"/>
       <c r="AH195" s="2"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -11155,7 +11205,7 @@
       <c r="AG196" s="2"/>
       <c r="AH196" s="2"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -11191,7 +11241,7 @@
       <c r="AG197" s="2"/>
       <c r="AH197" s="2"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -11227,7 +11277,7 @@
       <c r="AG198" s="2"/>
       <c r="AH198" s="2"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -11263,7 +11313,7 @@
       <c r="AG199" s="2"/>
       <c r="AH199" s="2"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -11299,7 +11349,7 @@
       <c r="AG200" s="2"/>
       <c r="AH200" s="2"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11335,7 +11385,7 @@
       <c r="AG201" s="2"/>
       <c r="AH201" s="2"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11371,7 +11421,7 @@
       <c r="AG202" s="2"/>
       <c r="AH202" s="2"/>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11407,7 +11457,7 @@
       <c r="AG203" s="2"/>
       <c r="AH203" s="2"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11443,7 +11493,7 @@
       <c r="AG204" s="2"/>
       <c r="AH204" s="2"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11479,7 +11529,7 @@
       <c r="AG205" s="2"/>
       <c r="AH205" s="2"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11515,7 +11565,7 @@
       <c r="AG206" s="2"/>
       <c r="AH206" s="2"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11551,7 +11601,7 @@
       <c r="AG207" s="2"/>
       <c r="AH207" s="2"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11587,7 +11637,7 @@
       <c r="AG208" s="2"/>
       <c r="AH208" s="2"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11623,7 +11673,7 @@
       <c r="AG209" s="2"/>
       <c r="AH209" s="2"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11659,7 +11709,7 @@
       <c r="AG210" s="2"/>
       <c r="AH210" s="2"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11695,7 +11745,7 @@
       <c r="AG211" s="2"/>
       <c r="AH211" s="2"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11731,7 +11781,7 @@
       <c r="AG212" s="2"/>
       <c r="AH212" s="2"/>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11767,7 +11817,7 @@
       <c r="AG213" s="2"/>
       <c r="AH213" s="2"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11803,7 +11853,7 @@
       <c r="AG214" s="2"/>
       <c r="AH214" s="2"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11839,7 +11889,7 @@
       <c r="AG215" s="2"/>
       <c r="AH215" s="2"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -11875,7 +11925,7 @@
       <c r="AG216" s="2"/>
       <c r="AH216" s="2"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11911,7 +11961,7 @@
       <c r="AG217" s="2"/>
       <c r="AH217" s="2"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11947,7 +11997,7 @@
       <c r="AG218" s="2"/>
       <c r="AH218" s="2"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11983,7 +12033,7 @@
       <c r="AG219" s="2"/>
       <c r="AH219" s="2"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12019,7 +12069,7 @@
       <c r="AG220" s="2"/>
       <c r="AH220" s="2"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12055,7 +12105,7 @@
       <c r="AG221" s="2"/>
       <c r="AH221" s="2"/>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12091,7 +12141,7 @@
       <c r="AG222" s="2"/>
       <c r="AH222" s="2"/>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12127,7 +12177,7 @@
       <c r="AG223" s="2"/>
       <c r="AH223" s="2"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12163,7 +12213,7 @@
       <c r="AG224" s="2"/>
       <c r="AH224" s="2"/>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12199,7 +12249,7 @@
       <c r="AG225" s="2"/>
       <c r="AH225" s="2"/>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12235,7 +12285,7 @@
       <c r="AG226" s="2"/>
       <c r="AH226" s="2"/>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12271,7 +12321,7 @@
       <c r="AG227" s="2"/>
       <c r="AH227" s="2"/>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12307,7 +12357,7 @@
       <c r="AG228" s="2"/>
       <c r="AH228" s="2"/>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12343,7 +12393,7 @@
       <c r="AG229" s="2"/>
       <c r="AH229" s="2"/>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12379,7 +12429,7 @@
       <c r="AG230" s="2"/>
       <c r="AH230" s="2"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12415,7 +12465,7 @@
       <c r="AG231" s="2"/>
       <c r="AH231" s="2"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12451,7 +12501,7 @@
       <c r="AG232" s="2"/>
       <c r="AH232" s="2"/>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12487,7 +12537,7 @@
       <c r="AG233" s="2"/>
       <c r="AH233" s="2"/>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12523,7 +12573,7 @@
       <c r="AG234" s="2"/>
       <c r="AH234" s="2"/>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -12559,7 +12609,7 @@
       <c r="AG235" s="2"/>
       <c r="AH235" s="2"/>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -12595,7 +12645,7 @@
       <c r="AG236" s="2"/>
       <c r="AH236" s="2"/>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -12631,7 +12681,7 @@
       <c r="AG237" s="2"/>
       <c r="AH237" s="2"/>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -12667,7 +12717,7 @@
       <c r="AG238" s="2"/>
       <c r="AH238" s="2"/>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12703,7 +12753,7 @@
       <c r="AG239" s="2"/>
       <c r="AH239" s="2"/>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -12739,7 +12789,7 @@
       <c r="AG240" s="2"/>
       <c r="AH240" s="2"/>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -12775,7 +12825,7 @@
       <c r="AG241" s="2"/>
       <c r="AH241" s="2"/>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -12811,7 +12861,7 @@
       <c r="AG242" s="2"/>
       <c r="AH242" s="2"/>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -12847,7 +12897,7 @@
       <c r="AG243" s="2"/>
       <c r="AH243" s="2"/>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -12883,7 +12933,7 @@
       <c r="AG244" s="2"/>
       <c r="AH244" s="2"/>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -12919,7 +12969,7 @@
       <c r="AG245" s="2"/>
       <c r="AH245" s="2"/>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12955,7 +13005,7 @@
       <c r="AG246" s="2"/>
       <c r="AH246" s="2"/>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12991,7 +13041,7 @@
       <c r="AG247" s="2"/>
       <c r="AH247" s="2"/>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13027,7 +13077,7 @@
       <c r="AG248" s="2"/>
       <c r="AH248" s="2"/>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13063,7 +13113,7 @@
       <c r="AG249" s="2"/>
       <c r="AH249" s="2"/>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13099,7 +13149,7 @@
       <c r="AG250" s="2"/>
       <c r="AH250" s="2"/>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13135,7 +13185,7 @@
       <c r="AG251" s="2"/>
       <c r="AH251" s="2"/>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13171,7 +13221,7 @@
       <c r="AG252" s="2"/>
       <c r="AH252" s="2"/>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13207,7 +13257,7 @@
       <c r="AG253" s="2"/>
       <c r="AH253" s="2"/>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -13243,7 +13293,7 @@
       <c r="AG254" s="2"/>
       <c r="AH254" s="2"/>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -13279,7 +13329,7 @@
       <c r="AG255" s="2"/>
       <c r="AH255" s="2"/>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -13315,7 +13365,7 @@
       <c r="AG256" s="2"/>
       <c r="AH256" s="2"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -13351,7 +13401,7 @@
       <c r="AG257" s="2"/>
       <c r="AH257" s="2"/>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13387,7 +13437,7 @@
       <c r="AG258" s="2"/>
       <c r="AH258" s="2"/>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -13423,7 +13473,7 @@
       <c r="AG259" s="2"/>
       <c r="AH259" s="2"/>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -13459,7 +13509,7 @@
       <c r="AG260" s="2"/>
       <c r="AH260" s="2"/>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13495,7 +13545,7 @@
       <c r="AG261" s="2"/>
       <c r="AH261" s="2"/>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13531,7 +13581,7 @@
       <c r="AG262" s="2"/>
       <c r="AH262" s="2"/>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13567,7 +13617,7 @@
       <c r="AG263" s="2"/>
       <c r="AH263" s="2"/>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13603,7 +13653,7 @@
       <c r="AG264" s="2"/>
       <c r="AH264" s="2"/>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -13639,7 +13689,7 @@
       <c r="AG265" s="2"/>
       <c r="AH265" s="2"/>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -13675,7 +13725,7 @@
       <c r="AG266" s="2"/>
       <c r="AH266" s="2"/>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -13711,7 +13761,7 @@
       <c r="AG267" s="2"/>
       <c r="AH267" s="2"/>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -13747,7 +13797,7 @@
       <c r="AG268" s="2"/>
       <c r="AH268" s="2"/>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -13783,7 +13833,7 @@
       <c r="AG269" s="2"/>
       <c r="AH269" s="2"/>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -13819,7 +13869,7 @@
       <c r="AG270" s="2"/>
       <c r="AH270" s="2"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -13855,7 +13905,7 @@
       <c r="AG271" s="2"/>
       <c r="AH271" s="2"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -13891,7 +13941,7 @@
       <c r="AG272" s="2"/>
       <c r="AH272" s="2"/>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -13927,7 +13977,7 @@
       <c r="AG273" s="2"/>
       <c r="AH273" s="2"/>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -13963,7 +14013,7 @@
       <c r="AG274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13999,7 +14049,7 @@
       <c r="AG275" s="2"/>
       <c r="AH275" s="2"/>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -14035,7 +14085,7 @@
       <c r="AG276" s="2"/>
       <c r="AH276" s="2"/>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -14071,7 +14121,7 @@
       <c r="AG277" s="2"/>
       <c r="AH277" s="2"/>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -14107,7 +14157,7 @@
       <c r="AG278" s="2"/>
       <c r="AH278" s="2"/>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -14143,7 +14193,7 @@
       <c r="AG279" s="2"/>
       <c r="AH279" s="2"/>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -14179,7 +14229,7 @@
       <c r="AG280" s="2"/>
       <c r="AH280" s="2"/>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -14215,7 +14265,7 @@
       <c r="AG281" s="2"/>
       <c r="AH281" s="2"/>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -14251,7 +14301,7 @@
       <c r="AG282" s="2"/>
       <c r="AH282" s="2"/>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -14287,7 +14337,7 @@
       <c r="AG283" s="2"/>
       <c r="AH283" s="2"/>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -14323,7 +14373,7 @@
       <c r="AG284" s="2"/>
       <c r="AH284" s="2"/>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -14359,7 +14409,7 @@
       <c r="AG285" s="2"/>
       <c r="AH285" s="2"/>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -14395,7 +14445,7 @@
       <c r="AG286" s="2"/>
       <c r="AH286" s="2"/>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -14431,7 +14481,7 @@
       <c r="AG287" s="2"/>
       <c r="AH287" s="2"/>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -14467,7 +14517,7 @@
       <c r="AG288" s="2"/>
       <c r="AH288" s="2"/>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -14503,7 +14553,7 @@
       <c r="AG289" s="2"/>
       <c r="AH289" s="2"/>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -14539,7 +14589,7 @@
       <c r="AG290" s="2"/>
       <c r="AH290" s="2"/>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -14575,7 +14625,7 @@
       <c r="AG291" s="2"/>
       <c r="AH291" s="2"/>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -14611,7 +14661,7 @@
       <c r="AG292" s="2"/>
       <c r="AH292" s="2"/>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -14647,7 +14697,7 @@
       <c r="AG293" s="2"/>
       <c r="AH293" s="2"/>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -14683,7 +14733,7 @@
       <c r="AG294" s="2"/>
       <c r="AH294" s="2"/>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -14719,7 +14769,7 @@
       <c r="AG295" s="2"/>
       <c r="AH295" s="2"/>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -14755,7 +14805,7 @@
       <c r="AG296" s="2"/>
       <c r="AH296" s="2"/>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -14791,7 +14841,7 @@
       <c r="AG297" s="2"/>
       <c r="AH297" s="2"/>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -14827,7 +14877,7 @@
       <c r="AG298" s="2"/>
       <c r="AH298" s="2"/>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -14863,7 +14913,7 @@
       <c r="AG299" s="2"/>
       <c r="AH299" s="2"/>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -14899,7 +14949,7 @@
       <c r="AG300" s="2"/>
       <c r="AH300" s="2"/>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -14935,7 +14985,7 @@
       <c r="AG301" s="2"/>
       <c r="AH301" s="2"/>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -14985,12 +15035,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -15001,7 +15051,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -15009,7 +15059,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -15017,7 +15067,7 @@
         <v>44328</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -15028,7 +15078,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -15039,7 +15089,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -15050,7 +15100,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -15064,7 +15114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -15072,7 +15122,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -15080,7 +15130,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -15088,7 +15138,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -15096,7 +15146,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -15104,7 +15154,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -15112,7 +15162,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -15126,7 +15176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -15134,7 +15184,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -15142,7 +15192,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -15150,7 +15200,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -15161,7 +15211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -15172,47 +15222,47 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>76</v>
       </c>
